--- a/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="180" windowWidth="26610" windowHeight="11640" tabRatio="445"/>
+    <workbookView xWindow="180" yWindow="180" windowWidth="26610" windowHeight="11640" tabRatio="445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="348">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -1581,35 +1581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規ウインドウ表示の場合のみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最小表示件数が存在するときのみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不要。</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -1617,66 +1588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">個々の画面で検索条件件数の制御を行っている場合のみテスト
-</t>
-    <rPh sb="0" eb="2">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業務仕様及びアーキテクチャを踏まえて、観点毎にテスト対象要否を見直すこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケースNo</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1780,10 +1691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-6-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1801,10 +1708,6 @@
   </si>
   <si>
     <t>6-10-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1853,14 +1756,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8-4-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1966,10 +1861,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)システム機能設計書
 (2)メッセージ設計書</t>
     <phoneticPr fontId="1"/>
@@ -2060,10 +1951,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11-3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2088,10 +1975,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規ウインドウかつ、IE専用の場合のみテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>12-3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2121,16 +2004,6 @@
   </si>
   <si>
     <t>14-5-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個々の画面で最大表示件数の制御が必要な場合のみテスト</t>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5774,6 +5647,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5883,84 +5834,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6480,6 +6353,68 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13877925" y="1685925"/>
+          <a:ext cx="2295525" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面はまだ存在しないため、テスト不可。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>231321</xdr:rowOff>
@@ -6878,7 +6813,7 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7497,57 +7432,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="430" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="405"/>
-      <c r="C1" s="405"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="413" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="439" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="414" t="s">
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
+      <c r="N1" s="435"/>
+      <c r="O1" s="440" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="415"/>
-      <c r="Q1" s="415"/>
-      <c r="R1" s="416"/>
-      <c r="S1" s="423" t="s">
+      <c r="P1" s="441"/>
+      <c r="Q1" s="441"/>
+      <c r="R1" s="442"/>
+      <c r="S1" s="449" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="424"/>
-      <c r="U1" s="424"/>
-      <c r="V1" s="424"/>
-      <c r="W1" s="424"/>
-      <c r="X1" s="424"/>
-      <c r="Y1" s="424"/>
-      <c r="Z1" s="425"/>
-      <c r="AA1" s="404" t="s">
+      <c r="T1" s="450"/>
+      <c r="U1" s="450"/>
+      <c r="V1" s="450"/>
+      <c r="W1" s="450"/>
+      <c r="X1" s="450"/>
+      <c r="Y1" s="450"/>
+      <c r="Z1" s="451"/>
+      <c r="AA1" s="430" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="406"/>
-      <c r="AC1" s="432" t="str">
+      <c r="AB1" s="432"/>
+      <c r="AC1" s="458" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="433"/>
-      <c r="AE1" s="433"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="398">
+      <c r="AD1" s="459"/>
+      <c r="AE1" s="459"/>
+      <c r="AF1" s="460"/>
+      <c r="AG1" s="424">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="399"/>
-      <c r="AI1" s="400"/>
+      <c r="AH1" s="425"/>
+      <c r="AI1" s="426"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7555,53 +7490,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="430" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="407" t="s">
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="433" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="408"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="417"/>
-      <c r="P2" s="418"/>
-      <c r="Q2" s="418"/>
-      <c r="R2" s="419"/>
-      <c r="S2" s="426"/>
-      <c r="T2" s="427"/>
-      <c r="U2" s="427"/>
-      <c r="V2" s="427"/>
-      <c r="W2" s="427"/>
-      <c r="X2" s="427"/>
-      <c r="Y2" s="427"/>
-      <c r="Z2" s="428"/>
-      <c r="AA2" s="404" t="s">
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="434"/>
+      <c r="M2" s="434"/>
+      <c r="N2" s="435"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="444"/>
+      <c r="Q2" s="444"/>
+      <c r="R2" s="445"/>
+      <c r="S2" s="452"/>
+      <c r="T2" s="453"/>
+      <c r="U2" s="453"/>
+      <c r="V2" s="453"/>
+      <c r="W2" s="453"/>
+      <c r="X2" s="453"/>
+      <c r="Y2" s="453"/>
+      <c r="Z2" s="454"/>
+      <c r="AA2" s="430" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" s="406"/>
-      <c r="AC2" s="410" t="str">
+      <c r="AB2" s="432"/>
+      <c r="AC2" s="436" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="411"/>
-      <c r="AE2" s="411"/>
-      <c r="AF2" s="412"/>
-      <c r="AG2" s="398" t="str">
+      <c r="AD2" s="437"/>
+      <c r="AE2" s="437"/>
+      <c r="AF2" s="438"/>
+      <c r="AG2" s="424" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="399"/>
-      <c r="AI2" s="400"/>
+      <c r="AH2" s="425"/>
+      <c r="AI2" s="426"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7609,45 +7544,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="430" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="405"/>
-      <c r="C3" s="405"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="407" t="s">
+      <c r="B3" s="431"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="408"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="408"/>
-      <c r="K3" s="408"/>
-      <c r="L3" s="408"/>
-      <c r="M3" s="408"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="420"/>
-      <c r="P3" s="421"/>
-      <c r="Q3" s="421"/>
-      <c r="R3" s="422"/>
-      <c r="S3" s="429"/>
-      <c r="T3" s="430"/>
-      <c r="U3" s="430"/>
-      <c r="V3" s="430"/>
-      <c r="W3" s="430"/>
-      <c r="X3" s="430"/>
-      <c r="Y3" s="430"/>
-      <c r="Z3" s="431"/>
-      <c r="AA3" s="404"/>
-      <c r="AB3" s="406"/>
-      <c r="AC3" s="432"/>
-      <c r="AD3" s="433"/>
-      <c r="AE3" s="433"/>
-      <c r="AF3" s="434"/>
-      <c r="AG3" s="398"/>
-      <c r="AH3" s="399"/>
-      <c r="AI3" s="400"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434"/>
+      <c r="N3" s="435"/>
+      <c r="O3" s="446"/>
+      <c r="P3" s="447"/>
+      <c r="Q3" s="447"/>
+      <c r="R3" s="448"/>
+      <c r="S3" s="455"/>
+      <c r="T3" s="456"/>
+      <c r="U3" s="456"/>
+      <c r="V3" s="456"/>
+      <c r="W3" s="456"/>
+      <c r="X3" s="456"/>
+      <c r="Y3" s="456"/>
+      <c r="Z3" s="457"/>
+      <c r="AA3" s="430"/>
+      <c r="AB3" s="432"/>
+      <c r="AC3" s="458"/>
+      <c r="AD3" s="459"/>
+      <c r="AE3" s="459"/>
+      <c r="AF3" s="460"/>
+      <c r="AG3" s="424"/>
+      <c r="AH3" s="425"/>
+      <c r="AI3" s="426"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7684,1190 +7619,1034 @@
       <c r="A7" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="427" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="401" t="s">
+      <c r="C7" s="428"/>
+      <c r="D7" s="427" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402"/>
-      <c r="G7" s="401" t="s">
+      <c r="E7" s="429"/>
+      <c r="F7" s="428"/>
+      <c r="G7" s="427" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="403"/>
-      <c r="I7" s="402"/>
-      <c r="J7" s="401" t="s">
+      <c r="H7" s="429"/>
+      <c r="I7" s="428"/>
+      <c r="J7" s="427" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="403"/>
-      <c r="L7" s="403"/>
-      <c r="M7" s="403"/>
-      <c r="N7" s="403"/>
-      <c r="O7" s="403"/>
-      <c r="P7" s="402"/>
-      <c r="Q7" s="401" t="s">
+      <c r="K7" s="429"/>
+      <c r="L7" s="429"/>
+      <c r="M7" s="429"/>
+      <c r="N7" s="429"/>
+      <c r="O7" s="429"/>
+      <c r="P7" s="428"/>
+      <c r="Q7" s="427" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="403"/>
-      <c r="S7" s="403"/>
-      <c r="T7" s="403"/>
-      <c r="U7" s="403"/>
-      <c r="V7" s="403"/>
-      <c r="W7" s="403"/>
-      <c r="X7" s="403"/>
-      <c r="Y7" s="403"/>
-      <c r="Z7" s="403"/>
-      <c r="AA7" s="403"/>
-      <c r="AB7" s="403"/>
-      <c r="AC7" s="403"/>
-      <c r="AD7" s="403"/>
-      <c r="AE7" s="402"/>
-      <c r="AF7" s="401" t="s">
+      <c r="R7" s="429"/>
+      <c r="S7" s="429"/>
+      <c r="T7" s="429"/>
+      <c r="U7" s="429"/>
+      <c r="V7" s="429"/>
+      <c r="W7" s="429"/>
+      <c r="X7" s="429"/>
+      <c r="Y7" s="429"/>
+      <c r="Z7" s="429"/>
+      <c r="AA7" s="429"/>
+      <c r="AB7" s="429"/>
+      <c r="AC7" s="429"/>
+      <c r="AD7" s="429"/>
+      <c r="AE7" s="428"/>
+      <c r="AF7" s="427" t="s">
         <v>119</v>
       </c>
-      <c r="AG7" s="403"/>
-      <c r="AH7" s="403"/>
-      <c r="AI7" s="402"/>
+      <c r="AG7" s="429"/>
+      <c r="AH7" s="429"/>
+      <c r="AI7" s="428"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="447" t="s">
+      <c r="B8" s="411" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="448"/>
-      <c r="D8" s="449">
+      <c r="C8" s="412"/>
+      <c r="D8" s="413">
         <v>43657</v>
       </c>
-      <c r="E8" s="450"/>
-      <c r="F8" s="451"/>
-      <c r="G8" s="452" t="s">
+      <c r="E8" s="414"/>
+      <c r="F8" s="415"/>
+      <c r="G8" s="416" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="453"/>
-      <c r="I8" s="448"/>
-      <c r="J8" s="454" t="s">
+      <c r="H8" s="417"/>
+      <c r="I8" s="412"/>
+      <c r="J8" s="418" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="455"/>
-      <c r="L8" s="455"/>
-      <c r="M8" s="455"/>
-      <c r="N8" s="455"/>
-      <c r="O8" s="455"/>
-      <c r="P8" s="456"/>
-      <c r="Q8" s="457" t="s">
+      <c r="K8" s="419"/>
+      <c r="L8" s="419"/>
+      <c r="M8" s="419"/>
+      <c r="N8" s="419"/>
+      <c r="O8" s="419"/>
+      <c r="P8" s="420"/>
+      <c r="Q8" s="421" t="s">
         <v>155</v>
       </c>
-      <c r="R8" s="458"/>
-      <c r="S8" s="458"/>
-      <c r="T8" s="458"/>
-      <c r="U8" s="458"/>
-      <c r="V8" s="458"/>
-      <c r="W8" s="458"/>
-      <c r="X8" s="458"/>
-      <c r="Y8" s="458"/>
-      <c r="Z8" s="458"/>
-      <c r="AA8" s="458"/>
-      <c r="AB8" s="458"/>
-      <c r="AC8" s="458"/>
-      <c r="AD8" s="458"/>
-      <c r="AE8" s="459"/>
-      <c r="AF8" s="454" t="s">
+      <c r="R8" s="422"/>
+      <c r="S8" s="422"/>
+      <c r="T8" s="422"/>
+      <c r="U8" s="422"/>
+      <c r="V8" s="422"/>
+      <c r="W8" s="422"/>
+      <c r="X8" s="422"/>
+      <c r="Y8" s="422"/>
+      <c r="Z8" s="422"/>
+      <c r="AA8" s="422"/>
+      <c r="AB8" s="422"/>
+      <c r="AC8" s="422"/>
+      <c r="AD8" s="422"/>
+      <c r="AE8" s="423"/>
+      <c r="AF8" s="418" t="s">
         <v>156</v>
       </c>
-      <c r="AG8" s="455"/>
-      <c r="AH8" s="455"/>
-      <c r="AI8" s="456"/>
+      <c r="AG8" s="419"/>
+      <c r="AH8" s="419"/>
+      <c r="AI8" s="420"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="435"/>
-      <c r="C9" s="436"/>
-      <c r="D9" s="437"/>
-      <c r="E9" s="438"/>
-      <c r="F9" s="439"/>
-      <c r="G9" s="437"/>
-      <c r="H9" s="440"/>
-      <c r="I9" s="436"/>
-      <c r="J9" s="441"/>
-      <c r="K9" s="442"/>
-      <c r="L9" s="442"/>
-      <c r="M9" s="442"/>
-      <c r="N9" s="442"/>
-      <c r="O9" s="442"/>
-      <c r="P9" s="443"/>
-      <c r="Q9" s="444"/>
-      <c r="R9" s="445"/>
-      <c r="S9" s="445"/>
-      <c r="T9" s="445"/>
-      <c r="U9" s="445"/>
-      <c r="V9" s="445"/>
-      <c r="W9" s="445"/>
-      <c r="X9" s="445"/>
-      <c r="Y9" s="445"/>
-      <c r="Z9" s="445"/>
-      <c r="AA9" s="445"/>
-      <c r="AB9" s="445"/>
-      <c r="AC9" s="445"/>
-      <c r="AD9" s="445"/>
-      <c r="AE9" s="446"/>
-      <c r="AF9" s="441"/>
-      <c r="AG9" s="442"/>
-      <c r="AH9" s="442"/>
-      <c r="AI9" s="443"/>
+      <c r="B9" s="398"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="400"/>
+      <c r="E9" s="401"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="400"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="399"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="405"/>
+      <c r="L9" s="405"/>
+      <c r="M9" s="405"/>
+      <c r="N9" s="405"/>
+      <c r="O9" s="405"/>
+      <c r="P9" s="406"/>
+      <c r="Q9" s="407"/>
+      <c r="R9" s="408"/>
+      <c r="S9" s="408"/>
+      <c r="T9" s="408"/>
+      <c r="U9" s="408"/>
+      <c r="V9" s="408"/>
+      <c r="W9" s="408"/>
+      <c r="X9" s="408"/>
+      <c r="Y9" s="408"/>
+      <c r="Z9" s="408"/>
+      <c r="AA9" s="408"/>
+      <c r="AB9" s="408"/>
+      <c r="AC9" s="408"/>
+      <c r="AD9" s="408"/>
+      <c r="AE9" s="409"/>
+      <c r="AF9" s="404"/>
+      <c r="AG9" s="405"/>
+      <c r="AH9" s="405"/>
+      <c r="AI9" s="406"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="435"/>
-      <c r="C10" s="436"/>
-      <c r="D10" s="437"/>
-      <c r="E10" s="438"/>
-      <c r="F10" s="439"/>
-      <c r="G10" s="435"/>
-      <c r="H10" s="440"/>
-      <c r="I10" s="436"/>
-      <c r="J10" s="441"/>
-      <c r="K10" s="442"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="442"/>
-      <c r="N10" s="442"/>
-      <c r="O10" s="442"/>
-      <c r="P10" s="443"/>
-      <c r="Q10" s="444"/>
-      <c r="R10" s="445"/>
-      <c r="S10" s="445"/>
-      <c r="T10" s="445"/>
-      <c r="U10" s="445"/>
-      <c r="V10" s="445"/>
-      <c r="W10" s="445"/>
-      <c r="X10" s="445"/>
-      <c r="Y10" s="445"/>
-      <c r="Z10" s="445"/>
-      <c r="AA10" s="445"/>
-      <c r="AB10" s="445"/>
-      <c r="AC10" s="445"/>
-      <c r="AD10" s="445"/>
-      <c r="AE10" s="446"/>
-      <c r="AF10" s="441"/>
-      <c r="AG10" s="442"/>
-      <c r="AH10" s="442"/>
-      <c r="AI10" s="443"/>
+      <c r="B10" s="398"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="400"/>
+      <c r="E10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="398"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="405"/>
+      <c r="L10" s="405"/>
+      <c r="M10" s="405"/>
+      <c r="N10" s="405"/>
+      <c r="O10" s="405"/>
+      <c r="P10" s="406"/>
+      <c r="Q10" s="407"/>
+      <c r="R10" s="408"/>
+      <c r="S10" s="408"/>
+      <c r="T10" s="408"/>
+      <c r="U10" s="408"/>
+      <c r="V10" s="408"/>
+      <c r="W10" s="408"/>
+      <c r="X10" s="408"/>
+      <c r="Y10" s="408"/>
+      <c r="Z10" s="408"/>
+      <c r="AA10" s="408"/>
+      <c r="AB10" s="408"/>
+      <c r="AC10" s="408"/>
+      <c r="AD10" s="408"/>
+      <c r="AE10" s="409"/>
+      <c r="AF10" s="404"/>
+      <c r="AG10" s="405"/>
+      <c r="AH10" s="405"/>
+      <c r="AI10" s="406"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="435"/>
-      <c r="C11" s="436"/>
-      <c r="D11" s="437"/>
-      <c r="E11" s="438"/>
-      <c r="F11" s="439"/>
-      <c r="G11" s="435"/>
-      <c r="H11" s="440"/>
-      <c r="I11" s="436"/>
-      <c r="J11" s="441"/>
-      <c r="K11" s="442"/>
-      <c r="L11" s="442"/>
-      <c r="M11" s="442"/>
-      <c r="N11" s="442"/>
-      <c r="O11" s="442"/>
-      <c r="P11" s="443"/>
-      <c r="Q11" s="444"/>
-      <c r="R11" s="445"/>
-      <c r="S11" s="445"/>
-      <c r="T11" s="445"/>
-      <c r="U11" s="445"/>
-      <c r="V11" s="445"/>
-      <c r="W11" s="445"/>
-      <c r="X11" s="445"/>
-      <c r="Y11" s="445"/>
-      <c r="Z11" s="445"/>
-      <c r="AA11" s="445"/>
-      <c r="AB11" s="445"/>
-      <c r="AC11" s="445"/>
-      <c r="AD11" s="445"/>
-      <c r="AE11" s="446"/>
-      <c r="AF11" s="441"/>
-      <c r="AG11" s="442"/>
-      <c r="AH11" s="442"/>
-      <c r="AI11" s="443"/>
+      <c r="B11" s="398"/>
+      <c r="C11" s="399"/>
+      <c r="D11" s="400"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="399"/>
+      <c r="J11" s="404"/>
+      <c r="K11" s="405"/>
+      <c r="L11" s="405"/>
+      <c r="M11" s="405"/>
+      <c r="N11" s="405"/>
+      <c r="O11" s="405"/>
+      <c r="P11" s="406"/>
+      <c r="Q11" s="407"/>
+      <c r="R11" s="408"/>
+      <c r="S11" s="408"/>
+      <c r="T11" s="408"/>
+      <c r="U11" s="408"/>
+      <c r="V11" s="408"/>
+      <c r="W11" s="408"/>
+      <c r="X11" s="408"/>
+      <c r="Y11" s="408"/>
+      <c r="Z11" s="408"/>
+      <c r="AA11" s="408"/>
+      <c r="AB11" s="408"/>
+      <c r="AC11" s="408"/>
+      <c r="AD11" s="408"/>
+      <c r="AE11" s="409"/>
+      <c r="AF11" s="404"/>
+      <c r="AG11" s="405"/>
+      <c r="AH11" s="405"/>
+      <c r="AI11" s="406"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="435"/>
-      <c r="C12" s="436"/>
-      <c r="D12" s="437"/>
-      <c r="E12" s="438"/>
-      <c r="F12" s="439"/>
-      <c r="G12" s="435"/>
-      <c r="H12" s="440"/>
-      <c r="I12" s="436"/>
-      <c r="J12" s="441"/>
-      <c r="K12" s="442"/>
-      <c r="L12" s="442"/>
-      <c r="M12" s="442"/>
-      <c r="N12" s="442"/>
-      <c r="O12" s="442"/>
-      <c r="P12" s="443"/>
-      <c r="Q12" s="444"/>
-      <c r="R12" s="445"/>
-      <c r="S12" s="445"/>
-      <c r="T12" s="445"/>
-      <c r="U12" s="445"/>
-      <c r="V12" s="445"/>
-      <c r="W12" s="445"/>
-      <c r="X12" s="445"/>
-      <c r="Y12" s="445"/>
-      <c r="Z12" s="445"/>
-      <c r="AA12" s="445"/>
-      <c r="AB12" s="445"/>
-      <c r="AC12" s="445"/>
-      <c r="AD12" s="445"/>
-      <c r="AE12" s="446"/>
-      <c r="AF12" s="441"/>
-      <c r="AG12" s="442"/>
-      <c r="AH12" s="442"/>
-      <c r="AI12" s="443"/>
+      <c r="B12" s="398"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="400"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="399"/>
+      <c r="J12" s="404"/>
+      <c r="K12" s="405"/>
+      <c r="L12" s="405"/>
+      <c r="M12" s="405"/>
+      <c r="N12" s="405"/>
+      <c r="O12" s="405"/>
+      <c r="P12" s="406"/>
+      <c r="Q12" s="407"/>
+      <c r="R12" s="408"/>
+      <c r="S12" s="408"/>
+      <c r="T12" s="408"/>
+      <c r="U12" s="408"/>
+      <c r="V12" s="408"/>
+      <c r="W12" s="408"/>
+      <c r="X12" s="408"/>
+      <c r="Y12" s="408"/>
+      <c r="Z12" s="408"/>
+      <c r="AA12" s="408"/>
+      <c r="AB12" s="408"/>
+      <c r="AC12" s="408"/>
+      <c r="AD12" s="408"/>
+      <c r="AE12" s="409"/>
+      <c r="AF12" s="404"/>
+      <c r="AG12" s="405"/>
+      <c r="AH12" s="405"/>
+      <c r="AI12" s="406"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="435"/>
-      <c r="C13" s="436"/>
-      <c r="D13" s="437"/>
-      <c r="E13" s="438"/>
-      <c r="F13" s="439"/>
-      <c r="G13" s="435"/>
-      <c r="H13" s="440"/>
-      <c r="I13" s="436"/>
-      <c r="J13" s="441"/>
-      <c r="K13" s="442"/>
-      <c r="L13" s="442"/>
-      <c r="M13" s="442"/>
-      <c r="N13" s="442"/>
-      <c r="O13" s="442"/>
-      <c r="P13" s="443"/>
-      <c r="Q13" s="444"/>
-      <c r="R13" s="445"/>
-      <c r="S13" s="445"/>
-      <c r="T13" s="445"/>
-      <c r="U13" s="445"/>
-      <c r="V13" s="445"/>
-      <c r="W13" s="445"/>
-      <c r="X13" s="445"/>
-      <c r="Y13" s="445"/>
-      <c r="Z13" s="445"/>
-      <c r="AA13" s="445"/>
-      <c r="AB13" s="445"/>
-      <c r="AC13" s="445"/>
-      <c r="AD13" s="445"/>
-      <c r="AE13" s="446"/>
-      <c r="AF13" s="441"/>
-      <c r="AG13" s="442"/>
-      <c r="AH13" s="442"/>
-      <c r="AI13" s="443"/>
+      <c r="B13" s="398"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="400"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="398"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="399"/>
+      <c r="J13" s="404"/>
+      <c r="K13" s="405"/>
+      <c r="L13" s="405"/>
+      <c r="M13" s="405"/>
+      <c r="N13" s="405"/>
+      <c r="O13" s="405"/>
+      <c r="P13" s="406"/>
+      <c r="Q13" s="407"/>
+      <c r="R13" s="408"/>
+      <c r="S13" s="408"/>
+      <c r="T13" s="408"/>
+      <c r="U13" s="408"/>
+      <c r="V13" s="408"/>
+      <c r="W13" s="408"/>
+      <c r="X13" s="408"/>
+      <c r="Y13" s="408"/>
+      <c r="Z13" s="408"/>
+      <c r="AA13" s="408"/>
+      <c r="AB13" s="408"/>
+      <c r="AC13" s="408"/>
+      <c r="AD13" s="408"/>
+      <c r="AE13" s="409"/>
+      <c r="AF13" s="404"/>
+      <c r="AG13" s="405"/>
+      <c r="AH13" s="405"/>
+      <c r="AI13" s="406"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="435"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="437"/>
-      <c r="E14" s="438"/>
-      <c r="F14" s="439"/>
-      <c r="G14" s="435"/>
-      <c r="H14" s="440"/>
-      <c r="I14" s="436"/>
-      <c r="J14" s="441"/>
-      <c r="K14" s="442"/>
-      <c r="L14" s="442"/>
-      <c r="M14" s="442"/>
-      <c r="N14" s="442"/>
-      <c r="O14" s="442"/>
-      <c r="P14" s="443"/>
-      <c r="Q14" s="444"/>
-      <c r="R14" s="445"/>
-      <c r="S14" s="445"/>
-      <c r="T14" s="445"/>
-      <c r="U14" s="445"/>
-      <c r="V14" s="445"/>
-      <c r="W14" s="445"/>
-      <c r="X14" s="445"/>
-      <c r="Y14" s="445"/>
-      <c r="Z14" s="445"/>
-      <c r="AA14" s="445"/>
-      <c r="AB14" s="445"/>
-      <c r="AC14" s="445"/>
-      <c r="AD14" s="445"/>
-      <c r="AE14" s="446"/>
-      <c r="AF14" s="441"/>
-      <c r="AG14" s="442"/>
-      <c r="AH14" s="442"/>
-      <c r="AI14" s="443"/>
+      <c r="B14" s="398"/>
+      <c r="C14" s="399"/>
+      <c r="D14" s="400"/>
+      <c r="E14" s="401"/>
+      <c r="F14" s="402"/>
+      <c r="G14" s="398"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="399"/>
+      <c r="J14" s="404"/>
+      <c r="K14" s="405"/>
+      <c r="L14" s="405"/>
+      <c r="M14" s="405"/>
+      <c r="N14" s="405"/>
+      <c r="O14" s="405"/>
+      <c r="P14" s="406"/>
+      <c r="Q14" s="407"/>
+      <c r="R14" s="408"/>
+      <c r="S14" s="408"/>
+      <c r="T14" s="408"/>
+      <c r="U14" s="408"/>
+      <c r="V14" s="408"/>
+      <c r="W14" s="408"/>
+      <c r="X14" s="408"/>
+      <c r="Y14" s="408"/>
+      <c r="Z14" s="408"/>
+      <c r="AA14" s="408"/>
+      <c r="AB14" s="408"/>
+      <c r="AC14" s="408"/>
+      <c r="AD14" s="408"/>
+      <c r="AE14" s="409"/>
+      <c r="AF14" s="404"/>
+      <c r="AG14" s="405"/>
+      <c r="AH14" s="405"/>
+      <c r="AI14" s="406"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="435"/>
-      <c r="C15" s="436"/>
-      <c r="D15" s="437"/>
-      <c r="E15" s="438"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="435"/>
-      <c r="H15" s="440"/>
-      <c r="I15" s="436"/>
-      <c r="J15" s="441"/>
-      <c r="K15" s="442"/>
-      <c r="L15" s="442"/>
-      <c r="M15" s="442"/>
-      <c r="N15" s="442"/>
-      <c r="O15" s="442"/>
-      <c r="P15" s="443"/>
-      <c r="Q15" s="444"/>
-      <c r="R15" s="445"/>
-      <c r="S15" s="445"/>
-      <c r="T15" s="445"/>
-      <c r="U15" s="445"/>
-      <c r="V15" s="445"/>
-      <c r="W15" s="445"/>
-      <c r="X15" s="445"/>
-      <c r="Y15" s="445"/>
-      <c r="Z15" s="445"/>
-      <c r="AA15" s="445"/>
-      <c r="AB15" s="445"/>
-      <c r="AC15" s="445"/>
-      <c r="AD15" s="445"/>
-      <c r="AE15" s="446"/>
-      <c r="AF15" s="441"/>
-      <c r="AG15" s="442"/>
-      <c r="AH15" s="442"/>
-      <c r="AI15" s="443"/>
+      <c r="B15" s="398"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="400"/>
+      <c r="E15" s="401"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="398"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="399"/>
+      <c r="J15" s="404"/>
+      <c r="K15" s="405"/>
+      <c r="L15" s="405"/>
+      <c r="M15" s="405"/>
+      <c r="N15" s="405"/>
+      <c r="O15" s="405"/>
+      <c r="P15" s="406"/>
+      <c r="Q15" s="407"/>
+      <c r="R15" s="408"/>
+      <c r="S15" s="408"/>
+      <c r="T15" s="408"/>
+      <c r="U15" s="408"/>
+      <c r="V15" s="408"/>
+      <c r="W15" s="408"/>
+      <c r="X15" s="408"/>
+      <c r="Y15" s="408"/>
+      <c r="Z15" s="408"/>
+      <c r="AA15" s="408"/>
+      <c r="AB15" s="408"/>
+      <c r="AC15" s="408"/>
+      <c r="AD15" s="408"/>
+      <c r="AE15" s="409"/>
+      <c r="AF15" s="404"/>
+      <c r="AG15" s="405"/>
+      <c r="AH15" s="405"/>
+      <c r="AI15" s="406"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="435"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="437"/>
-      <c r="E16" s="438"/>
-      <c r="F16" s="439"/>
-      <c r="G16" s="435"/>
-      <c r="H16" s="440"/>
-      <c r="I16" s="436"/>
-      <c r="J16" s="441"/>
-      <c r="K16" s="442"/>
-      <c r="L16" s="442"/>
-      <c r="M16" s="442"/>
-      <c r="N16" s="442"/>
-      <c r="O16" s="442"/>
-      <c r="P16" s="443"/>
-      <c r="Q16" s="444"/>
-      <c r="R16" s="445"/>
-      <c r="S16" s="445"/>
-      <c r="T16" s="445"/>
-      <c r="U16" s="445"/>
-      <c r="V16" s="445"/>
-      <c r="W16" s="445"/>
-      <c r="X16" s="445"/>
-      <c r="Y16" s="445"/>
-      <c r="Z16" s="445"/>
-      <c r="AA16" s="445"/>
-      <c r="AB16" s="445"/>
-      <c r="AC16" s="445"/>
-      <c r="AD16" s="445"/>
-      <c r="AE16" s="446"/>
-      <c r="AF16" s="441"/>
-      <c r="AG16" s="442"/>
-      <c r="AH16" s="442"/>
-      <c r="AI16" s="443"/>
+      <c r="B16" s="398"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="401"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="403"/>
+      <c r="I16" s="399"/>
+      <c r="J16" s="404"/>
+      <c r="K16" s="405"/>
+      <c r="L16" s="405"/>
+      <c r="M16" s="405"/>
+      <c r="N16" s="405"/>
+      <c r="O16" s="405"/>
+      <c r="P16" s="406"/>
+      <c r="Q16" s="407"/>
+      <c r="R16" s="408"/>
+      <c r="S16" s="408"/>
+      <c r="T16" s="408"/>
+      <c r="U16" s="408"/>
+      <c r="V16" s="408"/>
+      <c r="W16" s="408"/>
+      <c r="X16" s="408"/>
+      <c r="Y16" s="408"/>
+      <c r="Z16" s="408"/>
+      <c r="AA16" s="408"/>
+      <c r="AB16" s="408"/>
+      <c r="AC16" s="408"/>
+      <c r="AD16" s="408"/>
+      <c r="AE16" s="409"/>
+      <c r="AF16" s="404"/>
+      <c r="AG16" s="405"/>
+      <c r="AH16" s="405"/>
+      <c r="AI16" s="406"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="435"/>
-      <c r="C17" s="436"/>
-      <c r="D17" s="437"/>
-      <c r="E17" s="438"/>
-      <c r="F17" s="439"/>
-      <c r="G17" s="435"/>
-      <c r="H17" s="440"/>
-      <c r="I17" s="436"/>
-      <c r="J17" s="441"/>
-      <c r="K17" s="442"/>
-      <c r="L17" s="442"/>
-      <c r="M17" s="442"/>
-      <c r="N17" s="442"/>
-      <c r="O17" s="442"/>
-      <c r="P17" s="443"/>
-      <c r="Q17" s="444"/>
-      <c r="R17" s="445"/>
-      <c r="S17" s="445"/>
-      <c r="T17" s="445"/>
-      <c r="U17" s="445"/>
-      <c r="V17" s="445"/>
-      <c r="W17" s="445"/>
-      <c r="X17" s="445"/>
-      <c r="Y17" s="445"/>
-      <c r="Z17" s="445"/>
-      <c r="AA17" s="445"/>
-      <c r="AB17" s="445"/>
-      <c r="AC17" s="445"/>
-      <c r="AD17" s="445"/>
-      <c r="AE17" s="446"/>
-      <c r="AF17" s="441"/>
-      <c r="AG17" s="442"/>
-      <c r="AH17" s="442"/>
-      <c r="AI17" s="443"/>
+      <c r="B17" s="398"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="400"/>
+      <c r="E17" s="401"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="399"/>
+      <c r="J17" s="404"/>
+      <c r="K17" s="405"/>
+      <c r="L17" s="405"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="405"/>
+      <c r="O17" s="405"/>
+      <c r="P17" s="406"/>
+      <c r="Q17" s="407"/>
+      <c r="R17" s="408"/>
+      <c r="S17" s="408"/>
+      <c r="T17" s="408"/>
+      <c r="U17" s="408"/>
+      <c r="V17" s="408"/>
+      <c r="W17" s="408"/>
+      <c r="X17" s="408"/>
+      <c r="Y17" s="408"/>
+      <c r="Z17" s="408"/>
+      <c r="AA17" s="408"/>
+      <c r="AB17" s="408"/>
+      <c r="AC17" s="408"/>
+      <c r="AD17" s="408"/>
+      <c r="AE17" s="409"/>
+      <c r="AF17" s="404"/>
+      <c r="AG17" s="405"/>
+      <c r="AH17" s="405"/>
+      <c r="AI17" s="406"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="435"/>
-      <c r="C18" s="436"/>
-      <c r="D18" s="437"/>
-      <c r="E18" s="438"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="435"/>
-      <c r="H18" s="440"/>
-      <c r="I18" s="436"/>
-      <c r="J18" s="441"/>
-      <c r="K18" s="442"/>
-      <c r="L18" s="442"/>
-      <c r="M18" s="442"/>
-      <c r="N18" s="442"/>
-      <c r="O18" s="442"/>
-      <c r="P18" s="443"/>
-      <c r="Q18" s="444"/>
-      <c r="R18" s="445"/>
-      <c r="S18" s="445"/>
-      <c r="T18" s="445"/>
-      <c r="U18" s="445"/>
-      <c r="V18" s="445"/>
-      <c r="W18" s="445"/>
-      <c r="X18" s="445"/>
-      <c r="Y18" s="445"/>
-      <c r="Z18" s="445"/>
-      <c r="AA18" s="445"/>
-      <c r="AB18" s="445"/>
-      <c r="AC18" s="445"/>
-      <c r="AD18" s="445"/>
-      <c r="AE18" s="446"/>
-      <c r="AF18" s="441"/>
-      <c r="AG18" s="442"/>
-      <c r="AH18" s="442"/>
-      <c r="AI18" s="443"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="399"/>
+      <c r="D18" s="400"/>
+      <c r="E18" s="401"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="398"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="399"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="405"/>
+      <c r="L18" s="405"/>
+      <c r="M18" s="405"/>
+      <c r="N18" s="405"/>
+      <c r="O18" s="405"/>
+      <c r="P18" s="406"/>
+      <c r="Q18" s="407"/>
+      <c r="R18" s="408"/>
+      <c r="S18" s="408"/>
+      <c r="T18" s="408"/>
+      <c r="U18" s="408"/>
+      <c r="V18" s="408"/>
+      <c r="W18" s="408"/>
+      <c r="X18" s="408"/>
+      <c r="Y18" s="408"/>
+      <c r="Z18" s="408"/>
+      <c r="AA18" s="408"/>
+      <c r="AB18" s="408"/>
+      <c r="AC18" s="408"/>
+      <c r="AD18" s="408"/>
+      <c r="AE18" s="409"/>
+      <c r="AF18" s="404"/>
+      <c r="AG18" s="405"/>
+      <c r="AH18" s="405"/>
+      <c r="AI18" s="406"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="435"/>
-      <c r="C19" s="436"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="438"/>
-      <c r="F19" s="439"/>
-      <c r="G19" s="435"/>
-      <c r="H19" s="440"/>
-      <c r="I19" s="436"/>
-      <c r="J19" s="441"/>
-      <c r="K19" s="442"/>
-      <c r="L19" s="442"/>
-      <c r="M19" s="442"/>
-      <c r="N19" s="442"/>
-      <c r="O19" s="442"/>
-      <c r="P19" s="443"/>
-      <c r="Q19" s="444"/>
-      <c r="R19" s="445"/>
-      <c r="S19" s="445"/>
-      <c r="T19" s="445"/>
-      <c r="U19" s="445"/>
-      <c r="V19" s="445"/>
-      <c r="W19" s="445"/>
-      <c r="X19" s="445"/>
-      <c r="Y19" s="445"/>
-      <c r="Z19" s="445"/>
-      <c r="AA19" s="445"/>
-      <c r="AB19" s="445"/>
-      <c r="AC19" s="445"/>
-      <c r="AD19" s="445"/>
-      <c r="AE19" s="446"/>
-      <c r="AF19" s="441"/>
-      <c r="AG19" s="442"/>
-      <c r="AH19" s="442"/>
-      <c r="AI19" s="443"/>
+      <c r="B19" s="398"/>
+      <c r="C19" s="399"/>
+      <c r="D19" s="400"/>
+      <c r="E19" s="401"/>
+      <c r="F19" s="402"/>
+      <c r="G19" s="398"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="399"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="405"/>
+      <c r="L19" s="405"/>
+      <c r="M19" s="405"/>
+      <c r="N19" s="405"/>
+      <c r="O19" s="405"/>
+      <c r="P19" s="406"/>
+      <c r="Q19" s="407"/>
+      <c r="R19" s="408"/>
+      <c r="S19" s="408"/>
+      <c r="T19" s="408"/>
+      <c r="U19" s="408"/>
+      <c r="V19" s="408"/>
+      <c r="W19" s="408"/>
+      <c r="X19" s="408"/>
+      <c r="Y19" s="408"/>
+      <c r="Z19" s="408"/>
+      <c r="AA19" s="408"/>
+      <c r="AB19" s="408"/>
+      <c r="AC19" s="408"/>
+      <c r="AD19" s="408"/>
+      <c r="AE19" s="409"/>
+      <c r="AF19" s="404"/>
+      <c r="AG19" s="405"/>
+      <c r="AH19" s="405"/>
+      <c r="AI19" s="406"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="435"/>
-      <c r="C20" s="436"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="438"/>
-      <c r="F20" s="439"/>
-      <c r="G20" s="435"/>
-      <c r="H20" s="440"/>
-      <c r="I20" s="436"/>
-      <c r="J20" s="441"/>
-      <c r="K20" s="442"/>
-      <c r="L20" s="442"/>
-      <c r="M20" s="442"/>
-      <c r="N20" s="442"/>
-      <c r="O20" s="442"/>
-      <c r="P20" s="443"/>
-      <c r="Q20" s="444"/>
-      <c r="R20" s="445"/>
-      <c r="S20" s="445"/>
-      <c r="T20" s="445"/>
-      <c r="U20" s="445"/>
-      <c r="V20" s="445"/>
-      <c r="W20" s="445"/>
-      <c r="X20" s="445"/>
-      <c r="Y20" s="445"/>
-      <c r="Z20" s="445"/>
-      <c r="AA20" s="445"/>
-      <c r="AB20" s="445"/>
-      <c r="AC20" s="445"/>
-      <c r="AD20" s="445"/>
-      <c r="AE20" s="446"/>
-      <c r="AF20" s="441"/>
-      <c r="AG20" s="442"/>
-      <c r="AH20" s="442"/>
-      <c r="AI20" s="443"/>
+      <c r="B20" s="398"/>
+      <c r="C20" s="399"/>
+      <c r="D20" s="400"/>
+      <c r="E20" s="401"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="399"/>
+      <c r="J20" s="404"/>
+      <c r="K20" s="405"/>
+      <c r="L20" s="405"/>
+      <c r="M20" s="405"/>
+      <c r="N20" s="405"/>
+      <c r="O20" s="405"/>
+      <c r="P20" s="406"/>
+      <c r="Q20" s="407"/>
+      <c r="R20" s="408"/>
+      <c r="S20" s="408"/>
+      <c r="T20" s="408"/>
+      <c r="U20" s="408"/>
+      <c r="V20" s="408"/>
+      <c r="W20" s="408"/>
+      <c r="X20" s="408"/>
+      <c r="Y20" s="408"/>
+      <c r="Z20" s="408"/>
+      <c r="AA20" s="408"/>
+      <c r="AB20" s="408"/>
+      <c r="AC20" s="408"/>
+      <c r="AD20" s="408"/>
+      <c r="AE20" s="409"/>
+      <c r="AF20" s="404"/>
+      <c r="AG20" s="405"/>
+      <c r="AH20" s="405"/>
+      <c r="AI20" s="406"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="435"/>
-      <c r="C21" s="436"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="438"/>
-      <c r="F21" s="439"/>
-      <c r="G21" s="435"/>
-      <c r="H21" s="440"/>
-      <c r="I21" s="436"/>
-      <c r="J21" s="441"/>
-      <c r="K21" s="442"/>
-      <c r="L21" s="442"/>
-      <c r="M21" s="442"/>
-      <c r="N21" s="442"/>
-      <c r="O21" s="442"/>
-      <c r="P21" s="443"/>
-      <c r="Q21" s="444"/>
-      <c r="R21" s="445"/>
-      <c r="S21" s="445"/>
-      <c r="T21" s="445"/>
-      <c r="U21" s="445"/>
-      <c r="V21" s="445"/>
-      <c r="W21" s="445"/>
-      <c r="X21" s="445"/>
-      <c r="Y21" s="445"/>
-      <c r="Z21" s="445"/>
-      <c r="AA21" s="445"/>
-      <c r="AB21" s="445"/>
-      <c r="AC21" s="445"/>
-      <c r="AD21" s="445"/>
-      <c r="AE21" s="446"/>
-      <c r="AF21" s="441"/>
-      <c r="AG21" s="442"/>
-      <c r="AH21" s="442"/>
-      <c r="AI21" s="443"/>
+      <c r="B21" s="398"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="400"/>
+      <c r="E21" s="401"/>
+      <c r="F21" s="402"/>
+      <c r="G21" s="398"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="404"/>
+      <c r="K21" s="405"/>
+      <c r="L21" s="405"/>
+      <c r="M21" s="405"/>
+      <c r="N21" s="405"/>
+      <c r="O21" s="405"/>
+      <c r="P21" s="406"/>
+      <c r="Q21" s="407"/>
+      <c r="R21" s="408"/>
+      <c r="S21" s="408"/>
+      <c r="T21" s="408"/>
+      <c r="U21" s="408"/>
+      <c r="V21" s="408"/>
+      <c r="W21" s="408"/>
+      <c r="X21" s="408"/>
+      <c r="Y21" s="408"/>
+      <c r="Z21" s="408"/>
+      <c r="AA21" s="408"/>
+      <c r="AB21" s="408"/>
+      <c r="AC21" s="408"/>
+      <c r="AD21" s="408"/>
+      <c r="AE21" s="409"/>
+      <c r="AF21" s="404"/>
+      <c r="AG21" s="405"/>
+      <c r="AH21" s="405"/>
+      <c r="AI21" s="406"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="435"/>
-      <c r="C22" s="436"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="438"/>
-      <c r="F22" s="439"/>
-      <c r="G22" s="435"/>
-      <c r="H22" s="440"/>
-      <c r="I22" s="436"/>
-      <c r="J22" s="441"/>
-      <c r="K22" s="442"/>
-      <c r="L22" s="442"/>
-      <c r="M22" s="442"/>
-      <c r="N22" s="442"/>
-      <c r="O22" s="442"/>
-      <c r="P22" s="443"/>
-      <c r="Q22" s="444"/>
-      <c r="R22" s="445"/>
-      <c r="S22" s="445"/>
-      <c r="T22" s="445"/>
-      <c r="U22" s="445"/>
-      <c r="V22" s="445"/>
-      <c r="W22" s="445"/>
-      <c r="X22" s="445"/>
-      <c r="Y22" s="445"/>
-      <c r="Z22" s="445"/>
-      <c r="AA22" s="445"/>
-      <c r="AB22" s="445"/>
-      <c r="AC22" s="445"/>
-      <c r="AD22" s="445"/>
-      <c r="AE22" s="446"/>
-      <c r="AF22" s="441"/>
-      <c r="AG22" s="442"/>
-      <c r="AH22" s="442"/>
-      <c r="AI22" s="443"/>
+      <c r="B22" s="398"/>
+      <c r="C22" s="399"/>
+      <c r="D22" s="400"/>
+      <c r="E22" s="401"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="398"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="399"/>
+      <c r="J22" s="404"/>
+      <c r="K22" s="405"/>
+      <c r="L22" s="405"/>
+      <c r="M22" s="405"/>
+      <c r="N22" s="405"/>
+      <c r="O22" s="405"/>
+      <c r="P22" s="406"/>
+      <c r="Q22" s="407"/>
+      <c r="R22" s="408"/>
+      <c r="S22" s="408"/>
+      <c r="T22" s="408"/>
+      <c r="U22" s="408"/>
+      <c r="V22" s="408"/>
+      <c r="W22" s="408"/>
+      <c r="X22" s="408"/>
+      <c r="Y22" s="408"/>
+      <c r="Z22" s="408"/>
+      <c r="AA22" s="408"/>
+      <c r="AB22" s="408"/>
+      <c r="AC22" s="408"/>
+      <c r="AD22" s="408"/>
+      <c r="AE22" s="409"/>
+      <c r="AF22" s="404"/>
+      <c r="AG22" s="405"/>
+      <c r="AH22" s="405"/>
+      <c r="AI22" s="406"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="437"/>
-      <c r="E23" s="438"/>
-      <c r="F23" s="439"/>
-      <c r="G23" s="435"/>
-      <c r="H23" s="440"/>
-      <c r="I23" s="436"/>
-      <c r="J23" s="441"/>
-      <c r="K23" s="442"/>
-      <c r="L23" s="442"/>
-      <c r="M23" s="442"/>
-      <c r="N23" s="442"/>
-      <c r="O23" s="442"/>
-      <c r="P23" s="443"/>
-      <c r="Q23" s="444"/>
-      <c r="R23" s="445"/>
-      <c r="S23" s="445"/>
-      <c r="T23" s="445"/>
-      <c r="U23" s="445"/>
-      <c r="V23" s="445"/>
-      <c r="W23" s="445"/>
-      <c r="X23" s="445"/>
-      <c r="Y23" s="445"/>
-      <c r="Z23" s="445"/>
-      <c r="AA23" s="445"/>
-      <c r="AB23" s="445"/>
-      <c r="AC23" s="445"/>
-      <c r="AD23" s="445"/>
-      <c r="AE23" s="446"/>
-      <c r="AF23" s="441"/>
-      <c r="AG23" s="442"/>
-      <c r="AH23" s="442"/>
-      <c r="AI23" s="443"/>
+      <c r="B23" s="398"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="400"/>
+      <c r="E23" s="401"/>
+      <c r="F23" s="402"/>
+      <c r="G23" s="398"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="399"/>
+      <c r="J23" s="404"/>
+      <c r="K23" s="405"/>
+      <c r="L23" s="405"/>
+      <c r="M23" s="405"/>
+      <c r="N23" s="405"/>
+      <c r="O23" s="405"/>
+      <c r="P23" s="406"/>
+      <c r="Q23" s="407"/>
+      <c r="R23" s="408"/>
+      <c r="S23" s="408"/>
+      <c r="T23" s="408"/>
+      <c r="U23" s="408"/>
+      <c r="V23" s="408"/>
+      <c r="W23" s="408"/>
+      <c r="X23" s="408"/>
+      <c r="Y23" s="408"/>
+      <c r="Z23" s="408"/>
+      <c r="AA23" s="408"/>
+      <c r="AB23" s="408"/>
+      <c r="AC23" s="408"/>
+      <c r="AD23" s="408"/>
+      <c r="AE23" s="409"/>
+      <c r="AF23" s="404"/>
+      <c r="AG23" s="405"/>
+      <c r="AH23" s="405"/>
+      <c r="AI23" s="406"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="435"/>
-      <c r="C24" s="436"/>
-      <c r="D24" s="437"/>
-      <c r="E24" s="438"/>
-      <c r="F24" s="439"/>
-      <c r="G24" s="435"/>
-      <c r="H24" s="440"/>
-      <c r="I24" s="436"/>
-      <c r="J24" s="441"/>
-      <c r="K24" s="442"/>
-      <c r="L24" s="442"/>
-      <c r="M24" s="442"/>
-      <c r="N24" s="442"/>
-      <c r="O24" s="442"/>
-      <c r="P24" s="443"/>
-      <c r="Q24" s="444"/>
-      <c r="R24" s="445"/>
-      <c r="S24" s="445"/>
-      <c r="T24" s="445"/>
-      <c r="U24" s="445"/>
-      <c r="V24" s="445"/>
-      <c r="W24" s="445"/>
-      <c r="X24" s="445"/>
-      <c r="Y24" s="445"/>
-      <c r="Z24" s="445"/>
-      <c r="AA24" s="445"/>
-      <c r="AB24" s="445"/>
-      <c r="AC24" s="445"/>
-      <c r="AD24" s="445"/>
-      <c r="AE24" s="446"/>
-      <c r="AF24" s="441"/>
-      <c r="AG24" s="442"/>
-      <c r="AH24" s="442"/>
-      <c r="AI24" s="443"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="399"/>
+      <c r="D24" s="400"/>
+      <c r="E24" s="401"/>
+      <c r="F24" s="402"/>
+      <c r="G24" s="398"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="399"/>
+      <c r="J24" s="404"/>
+      <c r="K24" s="405"/>
+      <c r="L24" s="405"/>
+      <c r="M24" s="405"/>
+      <c r="N24" s="405"/>
+      <c r="O24" s="405"/>
+      <c r="P24" s="406"/>
+      <c r="Q24" s="407"/>
+      <c r="R24" s="408"/>
+      <c r="S24" s="408"/>
+      <c r="T24" s="408"/>
+      <c r="U24" s="408"/>
+      <c r="V24" s="408"/>
+      <c r="W24" s="408"/>
+      <c r="X24" s="408"/>
+      <c r="Y24" s="408"/>
+      <c r="Z24" s="408"/>
+      <c r="AA24" s="408"/>
+      <c r="AB24" s="408"/>
+      <c r="AC24" s="408"/>
+      <c r="AD24" s="408"/>
+      <c r="AE24" s="409"/>
+      <c r="AF24" s="404"/>
+      <c r="AG24" s="405"/>
+      <c r="AH24" s="405"/>
+      <c r="AI24" s="406"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="435"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="437"/>
-      <c r="E25" s="438"/>
-      <c r="F25" s="439"/>
-      <c r="G25" s="435"/>
-      <c r="H25" s="440"/>
-      <c r="I25" s="436"/>
-      <c r="J25" s="441"/>
-      <c r="K25" s="442"/>
-      <c r="L25" s="442"/>
-      <c r="M25" s="442"/>
-      <c r="N25" s="442"/>
-      <c r="O25" s="442"/>
-      <c r="P25" s="443"/>
-      <c r="Q25" s="444"/>
-      <c r="R25" s="445"/>
-      <c r="S25" s="445"/>
-      <c r="T25" s="445"/>
-      <c r="U25" s="445"/>
-      <c r="V25" s="445"/>
-      <c r="W25" s="445"/>
-      <c r="X25" s="445"/>
-      <c r="Y25" s="445"/>
-      <c r="Z25" s="445"/>
-      <c r="AA25" s="445"/>
-      <c r="AB25" s="445"/>
-      <c r="AC25" s="445"/>
-      <c r="AD25" s="445"/>
-      <c r="AE25" s="446"/>
-      <c r="AF25" s="441"/>
-      <c r="AG25" s="442"/>
-      <c r="AH25" s="442"/>
-      <c r="AI25" s="443"/>
+      <c r="B25" s="398"/>
+      <c r="C25" s="399"/>
+      <c r="D25" s="400"/>
+      <c r="E25" s="401"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="398"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="399"/>
+      <c r="J25" s="404"/>
+      <c r="K25" s="405"/>
+      <c r="L25" s="405"/>
+      <c r="M25" s="405"/>
+      <c r="N25" s="405"/>
+      <c r="O25" s="405"/>
+      <c r="P25" s="406"/>
+      <c r="Q25" s="407"/>
+      <c r="R25" s="408"/>
+      <c r="S25" s="408"/>
+      <c r="T25" s="408"/>
+      <c r="U25" s="408"/>
+      <c r="V25" s="408"/>
+      <c r="W25" s="408"/>
+      <c r="X25" s="408"/>
+      <c r="Y25" s="408"/>
+      <c r="Z25" s="408"/>
+      <c r="AA25" s="408"/>
+      <c r="AB25" s="408"/>
+      <c r="AC25" s="408"/>
+      <c r="AD25" s="408"/>
+      <c r="AE25" s="409"/>
+      <c r="AF25" s="404"/>
+      <c r="AG25" s="405"/>
+      <c r="AH25" s="405"/>
+      <c r="AI25" s="406"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="435"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="437"/>
-      <c r="E26" s="438"/>
-      <c r="F26" s="439"/>
-      <c r="G26" s="435"/>
-      <c r="H26" s="440"/>
-      <c r="I26" s="436"/>
-      <c r="J26" s="441"/>
-      <c r="K26" s="442"/>
-      <c r="L26" s="442"/>
-      <c r="M26" s="442"/>
-      <c r="N26" s="442"/>
-      <c r="O26" s="442"/>
-      <c r="P26" s="443"/>
-      <c r="Q26" s="444"/>
-      <c r="R26" s="445"/>
-      <c r="S26" s="445"/>
-      <c r="T26" s="445"/>
-      <c r="U26" s="445"/>
-      <c r="V26" s="445"/>
-      <c r="W26" s="445"/>
-      <c r="X26" s="445"/>
-      <c r="Y26" s="445"/>
-      <c r="Z26" s="445"/>
-      <c r="AA26" s="445"/>
-      <c r="AB26" s="445"/>
-      <c r="AC26" s="445"/>
-      <c r="AD26" s="445"/>
-      <c r="AE26" s="446"/>
-      <c r="AF26" s="441"/>
-      <c r="AG26" s="442"/>
-      <c r="AH26" s="442"/>
-      <c r="AI26" s="443"/>
+      <c r="B26" s="398"/>
+      <c r="C26" s="399"/>
+      <c r="D26" s="400"/>
+      <c r="E26" s="401"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="398"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="399"/>
+      <c r="J26" s="404"/>
+      <c r="K26" s="405"/>
+      <c r="L26" s="405"/>
+      <c r="M26" s="405"/>
+      <c r="N26" s="405"/>
+      <c r="O26" s="405"/>
+      <c r="P26" s="406"/>
+      <c r="Q26" s="407"/>
+      <c r="R26" s="408"/>
+      <c r="S26" s="408"/>
+      <c r="T26" s="408"/>
+      <c r="U26" s="408"/>
+      <c r="V26" s="408"/>
+      <c r="W26" s="408"/>
+      <c r="X26" s="408"/>
+      <c r="Y26" s="408"/>
+      <c r="Z26" s="408"/>
+      <c r="AA26" s="408"/>
+      <c r="AB26" s="408"/>
+      <c r="AC26" s="408"/>
+      <c r="AD26" s="408"/>
+      <c r="AE26" s="409"/>
+      <c r="AF26" s="404"/>
+      <c r="AG26" s="405"/>
+      <c r="AH26" s="405"/>
+      <c r="AI26" s="406"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="435"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="437"/>
-      <c r="E27" s="438"/>
-      <c r="F27" s="439"/>
-      <c r="G27" s="435"/>
-      <c r="H27" s="440"/>
-      <c r="I27" s="436"/>
-      <c r="J27" s="441"/>
-      <c r="K27" s="442"/>
-      <c r="L27" s="442"/>
-      <c r="M27" s="442"/>
-      <c r="N27" s="442"/>
-      <c r="O27" s="442"/>
-      <c r="P27" s="443"/>
-      <c r="Q27" s="444"/>
-      <c r="R27" s="445"/>
-      <c r="S27" s="445"/>
-      <c r="T27" s="445"/>
-      <c r="U27" s="445"/>
-      <c r="V27" s="445"/>
-      <c r="W27" s="445"/>
-      <c r="X27" s="445"/>
-      <c r="Y27" s="445"/>
-      <c r="Z27" s="445"/>
-      <c r="AA27" s="445"/>
-      <c r="AB27" s="445"/>
-      <c r="AC27" s="445"/>
-      <c r="AD27" s="445"/>
-      <c r="AE27" s="446"/>
-      <c r="AF27" s="441"/>
-      <c r="AG27" s="442"/>
-      <c r="AH27" s="442"/>
-      <c r="AI27" s="443"/>
+      <c r="B27" s="398"/>
+      <c r="C27" s="399"/>
+      <c r="D27" s="400"/>
+      <c r="E27" s="401"/>
+      <c r="F27" s="402"/>
+      <c r="G27" s="398"/>
+      <c r="H27" s="403"/>
+      <c r="I27" s="399"/>
+      <c r="J27" s="404"/>
+      <c r="K27" s="405"/>
+      <c r="L27" s="405"/>
+      <c r="M27" s="405"/>
+      <c r="N27" s="405"/>
+      <c r="O27" s="405"/>
+      <c r="P27" s="406"/>
+      <c r="Q27" s="407"/>
+      <c r="R27" s="408"/>
+      <c r="S27" s="408"/>
+      <c r="T27" s="408"/>
+      <c r="U27" s="408"/>
+      <c r="V27" s="408"/>
+      <c r="W27" s="408"/>
+      <c r="X27" s="408"/>
+      <c r="Y27" s="408"/>
+      <c r="Z27" s="408"/>
+      <c r="AA27" s="408"/>
+      <c r="AB27" s="408"/>
+      <c r="AC27" s="408"/>
+      <c r="AD27" s="408"/>
+      <c r="AE27" s="409"/>
+      <c r="AF27" s="404"/>
+      <c r="AG27" s="405"/>
+      <c r="AH27" s="405"/>
+      <c r="AI27" s="406"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="435"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="437"/>
-      <c r="E28" s="438"/>
-      <c r="F28" s="439"/>
-      <c r="G28" s="435"/>
-      <c r="H28" s="440"/>
-      <c r="I28" s="436"/>
-      <c r="J28" s="441"/>
-      <c r="K28" s="442"/>
-      <c r="L28" s="442"/>
-      <c r="M28" s="442"/>
-      <c r="N28" s="442"/>
-      <c r="O28" s="442"/>
-      <c r="P28" s="443"/>
-      <c r="Q28" s="444"/>
-      <c r="R28" s="445"/>
-      <c r="S28" s="445"/>
-      <c r="T28" s="445"/>
-      <c r="U28" s="445"/>
-      <c r="V28" s="445"/>
-      <c r="W28" s="445"/>
-      <c r="X28" s="445"/>
-      <c r="Y28" s="445"/>
-      <c r="Z28" s="445"/>
-      <c r="AA28" s="445"/>
-      <c r="AB28" s="445"/>
-      <c r="AC28" s="445"/>
-      <c r="AD28" s="445"/>
-      <c r="AE28" s="446"/>
-      <c r="AF28" s="441"/>
-      <c r="AG28" s="442"/>
-      <c r="AH28" s="442"/>
-      <c r="AI28" s="443"/>
+      <c r="B28" s="398"/>
+      <c r="C28" s="399"/>
+      <c r="D28" s="400"/>
+      <c r="E28" s="401"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="398"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="399"/>
+      <c r="J28" s="404"/>
+      <c r="K28" s="405"/>
+      <c r="L28" s="405"/>
+      <c r="M28" s="405"/>
+      <c r="N28" s="405"/>
+      <c r="O28" s="405"/>
+      <c r="P28" s="406"/>
+      <c r="Q28" s="407"/>
+      <c r="R28" s="408"/>
+      <c r="S28" s="408"/>
+      <c r="T28" s="408"/>
+      <c r="U28" s="408"/>
+      <c r="V28" s="408"/>
+      <c r="W28" s="408"/>
+      <c r="X28" s="408"/>
+      <c r="Y28" s="408"/>
+      <c r="Z28" s="408"/>
+      <c r="AA28" s="408"/>
+      <c r="AB28" s="408"/>
+      <c r="AC28" s="408"/>
+      <c r="AD28" s="408"/>
+      <c r="AE28" s="409"/>
+      <c r="AF28" s="404"/>
+      <c r="AG28" s="405"/>
+      <c r="AH28" s="405"/>
+      <c r="AI28" s="406"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="435"/>
-      <c r="C29" s="436"/>
-      <c r="D29" s="437"/>
-      <c r="E29" s="438"/>
-      <c r="F29" s="439"/>
-      <c r="G29" s="435"/>
-      <c r="H29" s="440"/>
-      <c r="I29" s="436"/>
-      <c r="J29" s="441"/>
-      <c r="K29" s="442"/>
-      <c r="L29" s="442"/>
-      <c r="M29" s="442"/>
-      <c r="N29" s="442"/>
-      <c r="O29" s="442"/>
-      <c r="P29" s="443"/>
-      <c r="Q29" s="444"/>
-      <c r="R29" s="445"/>
-      <c r="S29" s="445"/>
-      <c r="T29" s="445"/>
-      <c r="U29" s="445"/>
-      <c r="V29" s="445"/>
-      <c r="W29" s="445"/>
-      <c r="X29" s="445"/>
-      <c r="Y29" s="445"/>
-      <c r="Z29" s="445"/>
-      <c r="AA29" s="445"/>
-      <c r="AB29" s="445"/>
-      <c r="AC29" s="445"/>
-      <c r="AD29" s="445"/>
-      <c r="AE29" s="446"/>
-      <c r="AF29" s="441"/>
-      <c r="AG29" s="442"/>
-      <c r="AH29" s="442"/>
-      <c r="AI29" s="443"/>
+      <c r="B29" s="398"/>
+      <c r="C29" s="399"/>
+      <c r="D29" s="400"/>
+      <c r="E29" s="401"/>
+      <c r="F29" s="402"/>
+      <c r="G29" s="398"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="399"/>
+      <c r="J29" s="404"/>
+      <c r="K29" s="405"/>
+      <c r="L29" s="405"/>
+      <c r="M29" s="405"/>
+      <c r="N29" s="405"/>
+      <c r="O29" s="405"/>
+      <c r="P29" s="406"/>
+      <c r="Q29" s="407"/>
+      <c r="R29" s="408"/>
+      <c r="S29" s="408"/>
+      <c r="T29" s="408"/>
+      <c r="U29" s="408"/>
+      <c r="V29" s="408"/>
+      <c r="W29" s="408"/>
+      <c r="X29" s="408"/>
+      <c r="Y29" s="408"/>
+      <c r="Z29" s="408"/>
+      <c r="AA29" s="408"/>
+      <c r="AB29" s="408"/>
+      <c r="AC29" s="408"/>
+      <c r="AD29" s="408"/>
+      <c r="AE29" s="409"/>
+      <c r="AF29" s="404"/>
+      <c r="AG29" s="405"/>
+      <c r="AH29" s="405"/>
+      <c r="AI29" s="406"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="435"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="437"/>
-      <c r="E30" s="438"/>
-      <c r="F30" s="439"/>
-      <c r="G30" s="435"/>
-      <c r="H30" s="440"/>
-      <c r="I30" s="436"/>
-      <c r="J30" s="441"/>
-      <c r="K30" s="442"/>
-      <c r="L30" s="442"/>
-      <c r="M30" s="442"/>
-      <c r="N30" s="442"/>
-      <c r="O30" s="442"/>
-      <c r="P30" s="443"/>
-      <c r="Q30" s="444"/>
-      <c r="R30" s="445"/>
-      <c r="S30" s="445"/>
-      <c r="T30" s="445"/>
-      <c r="U30" s="445"/>
-      <c r="V30" s="445"/>
-      <c r="W30" s="445"/>
-      <c r="X30" s="445"/>
-      <c r="Y30" s="445"/>
-      <c r="Z30" s="445"/>
-      <c r="AA30" s="445"/>
-      <c r="AB30" s="445"/>
-      <c r="AC30" s="445"/>
-      <c r="AD30" s="445"/>
-      <c r="AE30" s="446"/>
-      <c r="AF30" s="441"/>
-      <c r="AG30" s="442"/>
-      <c r="AH30" s="442"/>
-      <c r="AI30" s="443"/>
+      <c r="B30" s="398"/>
+      <c r="C30" s="399"/>
+      <c r="D30" s="400"/>
+      <c r="E30" s="401"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="398"/>
+      <c r="H30" s="403"/>
+      <c r="I30" s="399"/>
+      <c r="J30" s="404"/>
+      <c r="K30" s="405"/>
+      <c r="L30" s="405"/>
+      <c r="M30" s="405"/>
+      <c r="N30" s="405"/>
+      <c r="O30" s="405"/>
+      <c r="P30" s="406"/>
+      <c r="Q30" s="407"/>
+      <c r="R30" s="408"/>
+      <c r="S30" s="408"/>
+      <c r="T30" s="408"/>
+      <c r="U30" s="408"/>
+      <c r="V30" s="408"/>
+      <c r="W30" s="408"/>
+      <c r="X30" s="408"/>
+      <c r="Y30" s="408"/>
+      <c r="Z30" s="408"/>
+      <c r="AA30" s="408"/>
+      <c r="AB30" s="408"/>
+      <c r="AC30" s="408"/>
+      <c r="AD30" s="408"/>
+      <c r="AE30" s="409"/>
+      <c r="AF30" s="404"/>
+      <c r="AG30" s="405"/>
+      <c r="AH30" s="405"/>
+      <c r="AI30" s="406"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="435"/>
-      <c r="C31" s="436"/>
-      <c r="D31" s="437"/>
-      <c r="E31" s="438"/>
-      <c r="F31" s="439"/>
-      <c r="G31" s="435"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="436"/>
-      <c r="J31" s="441"/>
-      <c r="K31" s="442"/>
-      <c r="L31" s="442"/>
-      <c r="M31" s="442"/>
-      <c r="N31" s="442"/>
-      <c r="O31" s="442"/>
-      <c r="P31" s="443"/>
-      <c r="Q31" s="444"/>
-      <c r="R31" s="445"/>
-      <c r="S31" s="445"/>
-      <c r="T31" s="445"/>
-      <c r="U31" s="445"/>
-      <c r="V31" s="445"/>
-      <c r="W31" s="445"/>
-      <c r="X31" s="445"/>
-      <c r="Y31" s="445"/>
-      <c r="Z31" s="445"/>
-      <c r="AA31" s="445"/>
-      <c r="AB31" s="445"/>
-      <c r="AC31" s="445"/>
-      <c r="AD31" s="445"/>
-      <c r="AE31" s="446"/>
-      <c r="AF31" s="441"/>
-      <c r="AG31" s="442"/>
-      <c r="AH31" s="442"/>
-      <c r="AI31" s="443"/>
+      <c r="B31" s="398"/>
+      <c r="C31" s="399"/>
+      <c r="D31" s="400"/>
+      <c r="E31" s="401"/>
+      <c r="F31" s="402"/>
+      <c r="G31" s="398"/>
+      <c r="H31" s="403"/>
+      <c r="I31" s="399"/>
+      <c r="J31" s="404"/>
+      <c r="K31" s="405"/>
+      <c r="L31" s="405"/>
+      <c r="M31" s="405"/>
+      <c r="N31" s="405"/>
+      <c r="O31" s="405"/>
+      <c r="P31" s="406"/>
+      <c r="Q31" s="407"/>
+      <c r="R31" s="408"/>
+      <c r="S31" s="408"/>
+      <c r="T31" s="408"/>
+      <c r="U31" s="408"/>
+      <c r="V31" s="408"/>
+      <c r="W31" s="408"/>
+      <c r="X31" s="408"/>
+      <c r="Y31" s="408"/>
+      <c r="Z31" s="408"/>
+      <c r="AA31" s="408"/>
+      <c r="AB31" s="408"/>
+      <c r="AC31" s="408"/>
+      <c r="AD31" s="408"/>
+      <c r="AE31" s="409"/>
+      <c r="AF31" s="404"/>
+      <c r="AG31" s="405"/>
+      <c r="AH31" s="405"/>
+      <c r="AI31" s="406"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="435"/>
-      <c r="C32" s="436"/>
-      <c r="D32" s="437"/>
-      <c r="E32" s="438"/>
-      <c r="F32" s="439"/>
-      <c r="G32" s="435"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="436"/>
-      <c r="J32" s="441"/>
-      <c r="K32" s="460"/>
-      <c r="L32" s="442"/>
-      <c r="M32" s="442"/>
-      <c r="N32" s="442"/>
-      <c r="O32" s="442"/>
-      <c r="P32" s="443"/>
-      <c r="Q32" s="444"/>
-      <c r="R32" s="445"/>
-      <c r="S32" s="445"/>
-      <c r="T32" s="445"/>
-      <c r="U32" s="445"/>
-      <c r="V32" s="445"/>
-      <c r="W32" s="445"/>
-      <c r="X32" s="445"/>
-      <c r="Y32" s="445"/>
-      <c r="Z32" s="445"/>
-      <c r="AA32" s="445"/>
-      <c r="AB32" s="445"/>
-      <c r="AC32" s="445"/>
-      <c r="AD32" s="445"/>
-      <c r="AE32" s="446"/>
-      <c r="AF32" s="441"/>
-      <c r="AG32" s="442"/>
-      <c r="AH32" s="442"/>
-      <c r="AI32" s="443"/>
+      <c r="B32" s="398"/>
+      <c r="C32" s="399"/>
+      <c r="D32" s="400"/>
+      <c r="E32" s="401"/>
+      <c r="F32" s="402"/>
+      <c r="G32" s="398"/>
+      <c r="H32" s="403"/>
+      <c r="I32" s="399"/>
+      <c r="J32" s="404"/>
+      <c r="K32" s="410"/>
+      <c r="L32" s="405"/>
+      <c r="M32" s="405"/>
+      <c r="N32" s="405"/>
+      <c r="O32" s="405"/>
+      <c r="P32" s="406"/>
+      <c r="Q32" s="407"/>
+      <c r="R32" s="408"/>
+      <c r="S32" s="408"/>
+      <c r="T32" s="408"/>
+      <c r="U32" s="408"/>
+      <c r="V32" s="408"/>
+      <c r="W32" s="408"/>
+      <c r="X32" s="408"/>
+      <c r="Y32" s="408"/>
+      <c r="Z32" s="408"/>
+      <c r="AA32" s="408"/>
+      <c r="AB32" s="408"/>
+      <c r="AC32" s="408"/>
+      <c r="AD32" s="408"/>
+      <c r="AE32" s="409"/>
+      <c r="AF32" s="404"/>
+      <c r="AG32" s="405"/>
+      <c r="AH32" s="405"/>
+      <c r="AI32" s="406"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="435"/>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="438"/>
-      <c r="F33" s="439"/>
-      <c r="G33" s="435"/>
-      <c r="H33" s="440"/>
-      <c r="I33" s="436"/>
-      <c r="J33" s="441"/>
-      <c r="K33" s="442"/>
-      <c r="L33" s="442"/>
-      <c r="M33" s="442"/>
-      <c r="N33" s="442"/>
-      <c r="O33" s="442"/>
-      <c r="P33" s="443"/>
-      <c r="Q33" s="444"/>
-      <c r="R33" s="445"/>
-      <c r="S33" s="445"/>
-      <c r="T33" s="445"/>
-      <c r="U33" s="445"/>
-      <c r="V33" s="445"/>
-      <c r="W33" s="445"/>
-      <c r="X33" s="445"/>
-      <c r="Y33" s="445"/>
-      <c r="Z33" s="445"/>
-      <c r="AA33" s="445"/>
-      <c r="AB33" s="445"/>
-      <c r="AC33" s="445"/>
-      <c r="AD33" s="445"/>
-      <c r="AE33" s="446"/>
-      <c r="AF33" s="441"/>
-      <c r="AG33" s="442"/>
-      <c r="AH33" s="442"/>
-      <c r="AI33" s="443"/>
+      <c r="B33" s="398"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="400"/>
+      <c r="E33" s="401"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="398"/>
+      <c r="H33" s="403"/>
+      <c r="I33" s="399"/>
+      <c r="J33" s="404"/>
+      <c r="K33" s="405"/>
+      <c r="L33" s="405"/>
+      <c r="M33" s="405"/>
+      <c r="N33" s="405"/>
+      <c r="O33" s="405"/>
+      <c r="P33" s="406"/>
+      <c r="Q33" s="407"/>
+      <c r="R33" s="408"/>
+      <c r="S33" s="408"/>
+      <c r="T33" s="408"/>
+      <c r="U33" s="408"/>
+      <c r="V33" s="408"/>
+      <c r="W33" s="408"/>
+      <c r="X33" s="408"/>
+      <c r="Y33" s="408"/>
+      <c r="Z33" s="408"/>
+      <c r="AA33" s="408"/>
+      <c r="AB33" s="408"/>
+      <c r="AC33" s="408"/>
+      <c r="AD33" s="408"/>
+      <c r="AE33" s="409"/>
+      <c r="AF33" s="404"/>
+      <c r="AG33" s="405"/>
+      <c r="AH33" s="405"/>
+      <c r="AI33" s="406"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8891,6 +8670,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8907,7 +8842,9 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -8928,7 +8865,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -8938,20 +8875,20 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -8962,7 +8899,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -8970,7 +8907,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -8991,14 +8928,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>171</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -9034,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -9052,7 +8987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="23.1" customHeight="1">
+    <row r="11" spans="1:18" ht="89.25" customHeight="1">
       <c r="A11" s="94" t="s">
         <v>31</v>
       </c>
@@ -9080,21 +9015,15 @@
       </c>
       <c r="L11" s="36"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="O11" s="53">
-        <v>43658</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>334</v>
-      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="100"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="94" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="54" t="s">
@@ -9105,10 +9034,10 @@
       <c r="F12" s="146"/>
       <c r="G12" s="147"/>
       <c r="H12" s="148" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I12" s="149" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J12" s="149"/>
       <c r="K12" s="149"/>
@@ -9122,7 +9051,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="94" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="152" t="s">
@@ -9154,7 +9083,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="61"/>
@@ -9182,7 +9111,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B15" s="101"/>
       <c r="C15" s="61"/>
@@ -9210,13 +9139,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62"/>
       <c r="E16" s="163" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="164"/>
@@ -9238,7 +9167,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="75" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="68"/>
@@ -9266,7 +9195,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="62"/>
@@ -9294,7 +9223,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="62"/>
@@ -9302,16 +9231,16 @@
         <v>79</v>
       </c>
       <c r="E19" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="173" t="s">
         <v>184</v>
-      </c>
-      <c r="F19" s="146" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="173" t="s">
-        <v>188</v>
       </c>
       <c r="I19" s="176" t="s">
         <v>29</v>
@@ -9328,22 +9257,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="102" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="62"/>
       <c r="D20" s="177"/>
       <c r="E20" s="163" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" s="164" t="s">
         <v>166</v>
       </c>
       <c r="H20" s="358" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I20" s="359" t="s">
         <v>29</v>
@@ -9360,22 +9289,22 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="102" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="62"/>
       <c r="D21" s="177"/>
       <c r="E21" s="365" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F21" s="179" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G21" s="180" t="s">
         <v>166</v>
       </c>
       <c r="H21" s="181" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I21" s="366" t="s">
         <v>29</v>
@@ -9392,22 +9321,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="62"/>
       <c r="D22" s="177"/>
       <c r="E22" s="365" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="179" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" s="180" t="s">
         <v>166</v>
       </c>
       <c r="H22" s="181" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I22" s="366" t="s">
         <v>29</v>
@@ -9422,20 +9351,20 @@
       <c r="Q22" s="185"/>
       <c r="R22" s="188"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="62"/>
-      <c r="D23" s="177"/>
+      <c r="D23" s="357" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="178" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="179"/>
-      <c r="G23" s="180" t="s">
-        <v>197</v>
-      </c>
+      <c r="G23" s="180"/>
       <c r="H23" s="181" t="s">
         <v>76</v>
       </c>
@@ -9454,7 +9383,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="103" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="68"/>
@@ -9463,9 +9392,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="179"/>
-      <c r="G24" s="180" t="s">
-        <v>166</v>
-      </c>
+      <c r="G24" s="180"/>
       <c r="H24" s="181" t="s">
         <v>76</v>
       </c>
@@ -9484,7 +9411,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="103" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="68"/>
@@ -9493,9 +9420,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="179"/>
-      <c r="G25" s="180" t="s">
-        <v>166</v>
-      </c>
+      <c r="G25" s="180"/>
       <c r="H25" s="181" t="s">
         <v>76</v>
       </c>
@@ -9514,7 +9439,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="103" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="68"/>
@@ -9523,9 +9448,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="179"/>
-      <c r="G26" s="180" t="s">
-        <v>166</v>
-      </c>
+      <c r="G26" s="180"/>
       <c r="H26" s="181" t="s">
         <v>76</v>
       </c>
@@ -9544,7 +9467,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="68"/>
@@ -9553,9 +9476,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="179"/>
-      <c r="G27" s="180" t="s">
-        <v>166</v>
-      </c>
+      <c r="G27" s="180"/>
       <c r="H27" s="181" t="s">
         <v>76</v>
       </c>
@@ -9574,7 +9495,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="62"/>
@@ -9583,9 +9504,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="190"/>
-      <c r="G28" s="191" t="s">
-        <v>203</v>
-      </c>
+      <c r="G28" s="191"/>
       <c r="H28" s="192" t="s">
         <v>76</v>
       </c>
@@ -9604,7 +9523,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="62"/>
@@ -9613,9 +9532,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="200"/>
-      <c r="G29" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G29" s="201"/>
       <c r="H29" s="202" t="s">
         <v>76</v>
       </c>
@@ -9634,7 +9551,7 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="75" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="62"/>
@@ -9642,15 +9559,15 @@
         <v>129</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F30" s="200"/>
       <c r="G30" s="201"/>
       <c r="H30" s="202" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I30" s="210" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J30" s="203"/>
       <c r="K30" s="203"/>
@@ -9664,15 +9581,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="75" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B31" s="101"/>
       <c r="C31" s="61"/>
       <c r="D31" s="211" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E31" s="212" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F31" s="200"/>
       <c r="G31" s="201"/>
@@ -9694,13 +9611,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="75" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="61"/>
       <c r="D32" s="70"/>
       <c r="E32" s="212" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F32" s="200"/>
       <c r="G32" s="201"/>
@@ -9722,18 +9639,16 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B33" s="101"/>
       <c r="C33" s="61"/>
       <c r="D33" s="70"/>
       <c r="E33" s="212" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F33" s="200"/>
-      <c r="G33" s="201" t="s">
-        <v>216</v>
-      </c>
+      <c r="G33" s="201"/>
       <c r="H33" s="213" t="s">
         <v>125</v>
       </c>
@@ -9752,18 +9667,16 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="75" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="61"/>
       <c r="D34" s="70"/>
       <c r="E34" s="212" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F34" s="200"/>
-      <c r="G34" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G34" s="201"/>
       <c r="H34" s="213" t="s">
         <v>125</v>
       </c>
@@ -9782,18 +9695,16 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B35" s="101"/>
       <c r="C35" s="61"/>
       <c r="D35" s="70"/>
       <c r="E35" s="212" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F35" s="200"/>
-      <c r="G35" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G35" s="201"/>
       <c r="H35" s="213" t="s">
         <v>125</v>
       </c>
@@ -9812,18 +9723,16 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="75" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B36" s="101"/>
       <c r="C36" s="61"/>
       <c r="D36" s="70"/>
       <c r="E36" s="212" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F36" s="200"/>
-      <c r="G36" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G36" s="201"/>
       <c r="H36" s="213" t="s">
         <v>125</v>
       </c>
@@ -9842,21 +9751,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="75" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="61"/>
       <c r="D37" s="70"/>
       <c r="E37" s="212" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F37" s="200"/>
       <c r="G37" s="201"/>
       <c r="H37" s="213" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I37" s="214" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J37" s="214"/>
       <c r="K37" s="214"/>
@@ -9870,21 +9779,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="75" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="61"/>
       <c r="D38" s="70"/>
       <c r="E38" s="212" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F38" s="200"/>
       <c r="G38" s="201"/>
       <c r="H38" s="213" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I38" s="214" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J38" s="214"/>
       <c r="K38" s="214"/>
@@ -9898,13 +9807,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="75" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B39" s="101"/>
       <c r="C39" s="61"/>
       <c r="D39" s="71"/>
       <c r="E39" s="212" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F39" s="200"/>
       <c r="G39" s="201"/>
@@ -9926,15 +9835,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="44" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B40" s="101"/>
       <c r="C40" s="61"/>
       <c r="D40" s="224" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E40" s="212" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F40" s="200"/>
       <c r="G40" s="201"/>
@@ -9956,18 +9865,16 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="44" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B41" s="101"/>
       <c r="C41" s="61"/>
       <c r="D41" s="70"/>
       <c r="E41" s="212" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F41" s="200"/>
-      <c r="G41" s="201" t="s">
-        <v>215</v>
-      </c>
+      <c r="G41" s="201"/>
       <c r="H41" s="213" t="s">
         <v>125</v>
       </c>
@@ -9992,12 +9899,10 @@
       <c r="C42" s="61"/>
       <c r="D42" s="70"/>
       <c r="E42" s="212" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F42" s="200"/>
-      <c r="G42" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G42" s="201"/>
       <c r="H42" s="213" t="s">
         <v>125</v>
       </c>
@@ -10022,12 +9927,10 @@
       <c r="C43" s="61"/>
       <c r="D43" s="70"/>
       <c r="E43" s="212" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F43" s="200"/>
-      <c r="G43" s="201" t="s">
-        <v>166</v>
-      </c>
+      <c r="G43" s="201"/>
       <c r="H43" s="213" t="s">
         <v>125</v>
       </c>
@@ -10046,21 +9949,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="44" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="61"/>
       <c r="D44" s="70"/>
       <c r="E44" s="225" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F44" s="200"/>
       <c r="G44" s="201"/>
       <c r="H44" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I44" s="227" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J44" s="227"/>
       <c r="K44" s="227"/>
@@ -10074,7 +9977,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="44" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="231" t="s">
@@ -10082,17 +9985,15 @@
       </c>
       <c r="D45" s="232"/>
       <c r="E45" s="232" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F45" s="233"/>
-      <c r="G45" s="234" t="s">
-        <v>243</v>
-      </c>
+      <c r="G45" s="234"/>
       <c r="H45" s="235" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I45" s="236" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J45" s="236"/>
       <c r="K45" s="236"/>
@@ -10106,23 +10007,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="44" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="61"/>
       <c r="D46" s="70"/>
       <c r="E46" s="241" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F46" s="242"/>
-      <c r="G46" s="243" t="s">
-        <v>166</v>
-      </c>
+      <c r="G46" s="243"/>
       <c r="H46" s="244" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I46" s="245" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J46" s="245"/>
       <c r="K46" s="245"/>
@@ -10136,23 +10035,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="44" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B47" s="105"/>
       <c r="C47" s="61"/>
       <c r="D47" s="70"/>
       <c r="E47" s="250" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F47" s="251"/>
-      <c r="G47" s="252" t="s">
-        <v>166</v>
-      </c>
+      <c r="G47" s="252"/>
       <c r="H47" s="253" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I47" s="254" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J47" s="254"/>
       <c r="K47" s="254"/>
@@ -10166,23 +10063,21 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B48" s="105"/>
       <c r="C48" s="61"/>
       <c r="D48" s="70"/>
       <c r="E48" s="259" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F48" s="260"/>
-      <c r="G48" s="261" t="s">
-        <v>166</v>
-      </c>
+      <c r="G48" s="261"/>
       <c r="H48" s="262" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I48" s="263" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J48" s="263"/>
       <c r="K48" s="263"/>
@@ -10196,23 +10091,21 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="44" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B49" s="105"/>
       <c r="C49" s="61"/>
       <c r="D49" s="70"/>
       <c r="E49" s="268" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F49" s="269"/>
-      <c r="G49" s="270" t="s">
-        <v>166</v>
-      </c>
+      <c r="G49" s="270"/>
       <c r="H49" s="271" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I49" s="272" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J49" s="272"/>
       <c r="K49" s="272"/>
@@ -10226,23 +10119,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="44" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B50" s="105"/>
       <c r="C50" s="61"/>
       <c r="D50" s="70"/>
       <c r="E50" s="277" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F50" s="278"/>
-      <c r="G50" s="279" t="s">
-        <v>166</v>
-      </c>
+      <c r="G50" s="279"/>
       <c r="H50" s="280" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I50" s="281" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J50" s="281"/>
       <c r="K50" s="281"/>
@@ -10256,20 +10147,18 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="44" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B51" s="105"/>
       <c r="C51" s="61"/>
       <c r="D51" s="70"/>
       <c r="E51" s="286" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F51" s="287"/>
-      <c r="G51" s="288" t="s">
-        <v>166</v>
-      </c>
+      <c r="G51" s="288"/>
       <c r="H51" s="289" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I51" s="290" t="s">
         <v>133</v>
@@ -10286,23 +10175,21 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="44" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B52" s="105"/>
       <c r="C52" s="61"/>
       <c r="D52" s="70"/>
       <c r="E52" s="295" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F52" s="296"/>
-      <c r="G52" s="297" t="s">
-        <v>166</v>
-      </c>
+      <c r="G52" s="297"/>
       <c r="H52" s="298" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I52" s="299" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J52" s="299"/>
       <c r="K52" s="299"/>
@@ -10316,23 +10203,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="44" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B53" s="106"/>
       <c r="C53" s="304"/>
       <c r="D53" s="70"/>
       <c r="E53" s="305" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F53" s="306"/>
-      <c r="G53" s="307" t="s">
-        <v>166</v>
-      </c>
+      <c r="G53" s="307"/>
       <c r="H53" s="308" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I53" s="309" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J53" s="309"/>
       <c r="K53" s="309"/>
@@ -10346,7 +10231,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="44" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>35</v>
@@ -10355,10 +10240,10 @@
         <v>36</v>
       </c>
       <c r="D54" s="107" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F54" s="109"/>
       <c r="G54" s="110"/>
@@ -10369,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="J54" s="112" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K54" s="112" t="s">
         <v>159</v>
@@ -10383,14 +10268,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="113" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q54" s="50"/>
       <c r="R54" s="114"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="44" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -10399,9 +10284,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="306"/>
-      <c r="G55" s="307" t="s">
-        <v>266</v>
-      </c>
+      <c r="G55" s="307"/>
       <c r="H55" s="315" t="s">
         <v>37</v>
       </c>
@@ -10420,7 +10303,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="44" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -10429,9 +10312,7 @@
         <v>40</v>
       </c>
       <c r="F56" s="306"/>
-      <c r="G56" s="307" t="s">
-        <v>166</v>
-      </c>
+      <c r="G56" s="307"/>
       <c r="H56" s="315" t="s">
         <v>37</v>
       </c>
@@ -10450,7 +10331,7 @@
     </row>
     <row r="57" spans="1:18" s="45" customFormat="1" ht="33.75">
       <c r="A57" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -10467,7 +10348,7 @@
         <v>38</v>
       </c>
       <c r="J57" s="116" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K57" s="116" t="s">
         <v>159</v>
@@ -10481,14 +10362,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="119"/>
     </row>
     <row r="58" spans="1:18" s="45" customFormat="1" ht="22.5">
       <c r="A58" s="44" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -10497,9 +10378,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="306"/>
-      <c r="G58" s="307" t="s">
-        <v>266</v>
-      </c>
+      <c r="G58" s="307"/>
       <c r="H58" s="315" t="s">
         <v>37</v>
       </c>
@@ -10518,20 +10397,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="44" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
       <c r="D59" s="120" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E59" s="317" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="318"/>
-      <c r="G59" s="319" t="s">
-        <v>167</v>
-      </c>
+      <c r="G59" s="319"/>
       <c r="H59" s="320" t="s">
         <v>37</v>
       </c>
@@ -10550,7 +10427,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="44" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -10559,9 +10436,7 @@
         <v>44</v>
       </c>
       <c r="F60" s="318"/>
-      <c r="G60" s="319" t="s">
-        <v>273</v>
-      </c>
+      <c r="G60" s="319"/>
       <c r="H60" s="320" t="s">
         <v>37</v>
       </c>
@@ -10580,7 +10455,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="44" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -10597,10 +10472,10 @@
         <v>38</v>
       </c>
       <c r="J61" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K61" s="125" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L61" s="36"/>
       <c r="M61" s="34"/>
@@ -10611,14 +10486,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="126"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="44" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -10648,7 +10523,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1">
       <c r="A63" s="44" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -10676,7 +10551,7 @@
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="44" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -10706,7 +10581,7 @@
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -10734,7 +10609,7 @@
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -10743,9 +10618,7 @@
         <v>138</v>
       </c>
       <c r="F66" s="318"/>
-      <c r="G66" s="319" t="s">
-        <v>168</v>
-      </c>
+      <c r="G66" s="319"/>
       <c r="H66" s="320" t="s">
         <v>33</v>
       </c>
@@ -10764,7 +10637,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -10773,10 +10646,10 @@
         <v>139</v>
       </c>
       <c r="F67" s="318" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G67" s="319" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H67" s="320" t="s">
         <v>33</v>
@@ -10796,7 +10669,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -10805,9 +10678,7 @@
         <v>97</v>
       </c>
       <c r="F68" s="318"/>
-      <c r="G68" s="319" t="s">
-        <v>282</v>
-      </c>
+      <c r="G68" s="319"/>
       <c r="H68" s="320" t="s">
         <v>33</v>
       </c>
@@ -10826,18 +10697,16 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
       <c r="D69" s="62"/>
       <c r="E69" s="321" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F69" s="318"/>
-      <c r="G69" s="319" t="s">
-        <v>166</v>
-      </c>
+      <c r="G69" s="319"/>
       <c r="H69" s="320" t="s">
         <v>33</v>
       </c>
@@ -10856,7 +10725,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="44" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -10865,9 +10734,7 @@
         <v>98</v>
       </c>
       <c r="F70" s="318"/>
-      <c r="G70" s="319" t="s">
-        <v>170</v>
-      </c>
+      <c r="G70" s="319"/>
       <c r="H70" s="320" t="s">
         <v>33</v>
       </c>
@@ -10886,18 +10753,16 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="69"/>
       <c r="E71" s="321" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F71" s="318"/>
-      <c r="G71" s="319" t="s">
-        <v>166</v>
-      </c>
+      <c r="G71" s="319"/>
       <c r="H71" s="320" t="s">
         <v>33</v>
       </c>
@@ -10916,7 +10781,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="44" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -10924,7 +10789,7 @@
         <v>136</v>
       </c>
       <c r="E72" s="321" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F72" s="318"/>
       <c r="G72" s="319"/>
@@ -10932,7 +10797,7 @@
         <v>33</v>
       </c>
       <c r="I72" s="72" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="J72" s="321"/>
       <c r="K72" s="321"/>
@@ -10946,7 +10811,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="44" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10976,18 +10841,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="44" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="62"/>
       <c r="E74" s="321" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F74" s="318"/>
       <c r="G74" s="319"/>
       <c r="H74" s="320" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I74" s="324" t="s">
         <v>55</v>
@@ -11004,7 +10869,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="44" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -11015,7 +10880,7 @@
       <c r="F75" s="318"/>
       <c r="G75" s="319"/>
       <c r="H75" s="320" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I75" s="324" t="s">
         <v>55</v>
@@ -11032,7 +10897,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="44" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -11045,7 +10910,7 @@
       <c r="F76" s="318"/>
       <c r="G76" s="319"/>
       <c r="H76" s="320" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I76" s="324" t="s">
         <v>55</v>
@@ -11062,7 +10927,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="44" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -11073,7 +10938,7 @@
       <c r="F77" s="318"/>
       <c r="G77" s="319"/>
       <c r="H77" s="320" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I77" s="324" t="s">
         <v>55</v>
@@ -11090,7 +10955,7 @@
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="44" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -11118,7 +10983,7 @@
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1" ht="101.25">
       <c r="A79" s="44" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11135,10 +11000,10 @@
         <v>55</v>
       </c>
       <c r="J79" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K79" s="125" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L79" s="36"/>
       <c r="M79" s="34"/>
@@ -11149,14 +11014,14 @@
         <v>43658</v>
       </c>
       <c r="P79" s="35" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q79" s="33"/>
       <c r="R79" s="126"/>
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="44" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -11165,10 +11030,10 @@
       </c>
       <c r="E80" s="175"/>
       <c r="F80" s="146" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G80" s="147" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H80" s="320" t="s">
         <v>33</v>
@@ -11186,9 +11051,9 @@
       <c r="Q80" s="59"/>
       <c r="R80" s="323"/>
     </row>
-    <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="81" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A81" s="44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B81" s="41"/>
       <c r="C81" s="127" t="s">
@@ -11201,13 +11066,13 @@
       <c r="F81" s="129"/>
       <c r="G81" s="130"/>
       <c r="H81" s="127" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I81" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J81" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K81" s="125" t="s">
         <v>159</v>
@@ -11221,14 +11086,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q81" s="133"/>
       <c r="R81" s="135"/>
     </row>
-    <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="82" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A82" s="44" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -11241,13 +11106,13 @@
       <c r="F82" s="129"/>
       <c r="G82" s="130"/>
       <c r="H82" s="127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I82" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J82" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K82" s="125" t="s">
         <v>159</v>
@@ -11261,25 +11126,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q82" s="133"/>
       <c r="R82" s="135"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="326"/>
       <c r="E83" s="327" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F83" s="328"/>
       <c r="G83" s="329"/>
       <c r="H83" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I83" s="324" t="s">
         <v>62</v>
@@ -11294,9 +11159,9 @@
       <c r="Q83" s="332"/>
       <c r="R83" s="335"/>
     </row>
-    <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="84" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A84" s="44" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -11307,13 +11172,13 @@
       <c r="F84" s="129"/>
       <c r="G84" s="130"/>
       <c r="H84" s="127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I84" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J84" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K84" s="125" t="s">
         <v>159</v>
@@ -11327,14 +11192,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q84" s="133"/>
       <c r="R84" s="135"/>
     </row>
-    <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="85" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A85" s="44" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -11345,13 +11210,13 @@
       <c r="F85" s="129"/>
       <c r="G85" s="130"/>
       <c r="H85" s="127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I85" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J85" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K85" s="125" t="s">
         <v>159</v>
@@ -11365,14 +11230,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q85" s="133"/>
       <c r="R85" s="135"/>
     </row>
-    <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="86" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A86" s="44" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -11383,13 +11248,13 @@
       <c r="F86" s="129"/>
       <c r="G86" s="130"/>
       <c r="H86" s="127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I86" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J86" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K86" s="125" t="s">
         <v>159</v>
@@ -11403,29 +11268,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q86" s="133"/>
       <c r="R86" s="135"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="44" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="326" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E87" s="336"/>
       <c r="F87" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G87" s="329" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H87" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I87" s="324" t="s">
         <v>62</v>
@@ -11442,7 +11307,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="44" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -11451,13 +11316,13 @@
       </c>
       <c r="E88" s="336"/>
       <c r="F88" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G88" s="329" t="s">
         <v>166</v>
       </c>
       <c r="H88" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I88" s="324" t="s">
         <v>62</v>
@@ -11474,7 +11339,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="44" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -11483,13 +11348,13 @@
       </c>
       <c r="E89" s="336"/>
       <c r="F89" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G89" s="329" t="s">
         <v>166</v>
       </c>
       <c r="H89" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I89" s="324" t="s">
         <v>62</v>
@@ -11506,7 +11371,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="44" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -11515,13 +11380,13 @@
       </c>
       <c r="E90" s="336"/>
       <c r="F90" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G90" s="329" t="s">
         <v>166</v>
       </c>
       <c r="H90" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I90" s="324" t="s">
         <v>62</v>
@@ -11538,7 +11403,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="44" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -11547,13 +11412,13 @@
       </c>
       <c r="E91" s="336"/>
       <c r="F91" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G91" s="329" t="s">
         <v>166</v>
       </c>
       <c r="H91" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I91" s="324" t="s">
         <v>62</v>
@@ -11570,7 +11435,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="44" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -11581,7 +11446,7 @@
       <c r="F92" s="328"/>
       <c r="G92" s="329"/>
       <c r="H92" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I92" s="324" t="s">
         <v>62</v>
@@ -11598,7 +11463,7 @@
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="44" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -11609,7 +11474,7 @@
       <c r="F93" s="328"/>
       <c r="G93" s="329"/>
       <c r="H93" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I93" s="324" t="s">
         <v>62</v>
@@ -11626,7 +11491,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="44" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -11637,7 +11502,7 @@
       <c r="F94" s="328"/>
       <c r="G94" s="329"/>
       <c r="H94" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I94" s="324" t="s">
         <v>62</v>
@@ -11654,7 +11519,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="44" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -11665,7 +11530,7 @@
       <c r="F95" s="328"/>
       <c r="G95" s="329"/>
       <c r="H95" s="317" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I95" s="317" t="s">
         <v>62</v>
@@ -11682,7 +11547,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="44" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -11693,7 +11558,7 @@
       <c r="F96" s="328"/>
       <c r="G96" s="329"/>
       <c r="H96" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I96" s="324" t="s">
         <v>62</v>
@@ -11710,7 +11575,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="44" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -11719,13 +11584,13 @@
       </c>
       <c r="E97" s="336"/>
       <c r="F97" s="328" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G97" s="329" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H97" s="317" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I97" s="317" t="s">
         <v>62</v>
@@ -11742,18 +11607,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="44" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
       <c r="D98" s="74" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E98" s="78"/>
       <c r="F98" s="328"/>
       <c r="G98" s="329"/>
       <c r="H98" s="324" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I98" s="324" t="s">
         <v>62</v>
@@ -11768,29 +11633,29 @@
       <c r="Q98" s="332"/>
       <c r="R98" s="335"/>
     </row>
-    <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="99" spans="1:18" s="32" customFormat="1" ht="106.5" customHeight="1">
       <c r="A99" s="44" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
       <c r="D99" s="51" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E99" s="52"/>
       <c r="F99" s="129"/>
       <c r="G99" s="130"/>
       <c r="H99" s="127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I99" s="127" t="s">
         <v>62</v>
       </c>
       <c r="J99" s="125" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K99" s="125" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L99" s="131"/>
       <c r="M99" s="132"/>
@@ -11801,14 +11666,14 @@
         <v>43658</v>
       </c>
       <c r="P99" s="134" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q99" s="133"/>
       <c r="R99" s="135"/>
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="76" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -11819,7 +11684,7 @@
       <c r="F100" s="318"/>
       <c r="G100" s="319"/>
       <c r="H100" s="340" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I100" s="340" t="s">
         <v>62</v>
@@ -11836,22 +11701,22 @@
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="139" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
       <c r="D101" s="74" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E101" s="78"/>
       <c r="F101" s="318" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G101" s="319" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I101" s="62" t="s">
         <v>62</v>
@@ -11868,7 +11733,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="76" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B102" s="77"/>
       <c r="C102" s="77"/>
@@ -11877,16 +11742,16 @@
       </c>
       <c r="E102" s="339"/>
       <c r="F102" s="318" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G102" s="319" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H102" s="340" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I102" s="340" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J102" s="341"/>
       <c r="K102" s="341"/>
@@ -12082,7 +11947,8 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="53" max="15" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12112,7 +11978,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -12122,20 +11988,20 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -12143,10 +12009,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -12173,14 +12039,11 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>171</v>
-      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -12216,7 +12079,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -12236,7 +12099,7 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="120.75" customHeight="1">
       <c r="A11" s="348" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B11" s="349" t="s">
         <v>85</v>
@@ -12251,16 +12114,16 @@
       <c r="F11" s="84"/>
       <c r="G11" s="84"/>
       <c r="H11" s="349" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I11" s="349" t="s">
         <v>150</v>
       </c>
       <c r="J11" s="121" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K11" s="121" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L11" s="350"/>
       <c r="M11" s="351"/>
@@ -12276,7 +12139,7 @@
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="375" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -12287,7 +12150,7 @@
       <c r="F12" s="85"/>
       <c r="G12" s="85"/>
       <c r="H12" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I12" s="377" t="s">
         <v>87</v>
@@ -12304,7 +12167,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="375" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -12315,7 +12178,7 @@
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
       <c r="H13" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I13" s="377" t="s">
         <v>87</v>
@@ -12332,7 +12195,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="375" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -12343,7 +12206,7 @@
       <c r="F14" s="85"/>
       <c r="G14" s="85"/>
       <c r="H14" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I14" s="377" t="s">
         <v>87</v>
@@ -12360,7 +12223,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="375" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -12373,7 +12236,7 @@
       <c r="F15" s="85"/>
       <c r="G15" s="85"/>
       <c r="H15" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I15" s="377" t="s">
         <v>87</v>
@@ -12390,7 +12253,7 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="375" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -12401,7 +12264,7 @@
       <c r="F16" s="85"/>
       <c r="G16" s="85"/>
       <c r="H16" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I16" s="377" t="s">
         <v>87</v>
@@ -12418,7 +12281,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="375" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -12429,7 +12292,7 @@
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I17" s="377" t="s">
         <v>87</v>
@@ -12446,7 +12309,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="375" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -12457,7 +12320,7 @@
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I18" s="377" t="s">
         <v>87</v>
@@ -12474,12 +12337,12 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="375" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
       <c r="D19" s="82" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>94</v>
@@ -12487,7 +12350,7 @@
       <c r="F19" s="85"/>
       <c r="G19" s="85"/>
       <c r="H19" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I19" s="377" t="s">
         <v>87</v>
@@ -12504,7 +12367,7 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="375" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -12512,12 +12375,12 @@
         <v>103</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F20" s="85"/>
       <c r="G20" s="85"/>
       <c r="H20" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I20" s="377" t="s">
         <v>87</v>
@@ -12534,18 +12397,18 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="375" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="461" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E21" s="462"/>
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I21" s="377" t="s">
         <v>87</v>
@@ -12562,7 +12425,7 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="375" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B22" s="80"/>
       <c r="C22" s="382" t="s">
@@ -12575,7 +12438,7 @@
       <c r="F22" s="85"/>
       <c r="G22" s="85"/>
       <c r="H22" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I22" s="377" t="s">
         <v>87</v>
@@ -12592,7 +12455,7 @@
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="375" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B23" s="81"/>
       <c r="C23" s="81"/>
@@ -12603,7 +12466,7 @@
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
       <c r="H23" s="377" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I23" s="377" t="s">
         <v>87</v>
@@ -12620,7 +12483,7 @@
     </row>
     <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="375" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B24" s="377" t="s">
         <v>143</v>
@@ -12631,10 +12494,10 @@
       <c r="D24" s="384"/>
       <c r="E24" s="385"/>
       <c r="F24" s="85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G24" s="386" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>27</v>
@@ -12654,25 +12517,25 @@
     </row>
     <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="387" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B25" s="388"/>
       <c r="C25" s="389" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D25" s="390"/>
       <c r="E25" s="391"/>
       <c r="F25" s="85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" s="85" t="s">
         <v>166</v>
       </c>
       <c r="H25" s="392" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I25" s="392" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J25" s="393"/>
       <c r="K25" s="393"/>
